--- a/www/docs/Ottoman_1500_1945_all_data.xlsx
+++ b/www/docs/Ottoman_1500_1945_all_data.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Data Clio Infra Format" r:id="rId3" sheetId="1"/>
-    <sheet name="Metadata" r:id="rId4" sheetId="2"/>
+    <sheet name="Data Long Format" r:id="rId4" sheetId="2"/>
+    <sheet name="Metadata" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="674">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1587,37 +1588,394 @@
     <t>2015</t>
   </si>
   <si>
-    <t>geacron/774</t>
-  </si>
-  <si>
-    <t>geacron/775</t>
-  </si>
-  <si>
-    <t>geacron/776</t>
-  </si>
-  <si>
-    <t>geacron/777</t>
-  </si>
-  <si>
-    <t>geacron/778</t>
-  </si>
-  <si>
-    <t>geacron/779</t>
-  </si>
-  <si>
-    <t>geacron/780</t>
-  </si>
-  <si>
-    <t>geacron/781</t>
+    <t>c("geacron/774", "geacron/775", "geacron/776", "geacron/777", "geacron/778", "geacron/779", "geacron/780", "geacron/781", "geacron/776", "geacron/777", "geacron/778", "geacron/779", "geacron/780")</t>
+  </si>
+  <si>
+    <t>c(774, 775, 776, 777, 778, 779, 780, 781, 776, 777, 778, 779, 780)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c("Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman")</t>
+  </si>
+  <si>
+    <t>c("1780", "1800", "1820", "1840", "1860", "1880", "1900", "1920", "1820", "1840", "1860", "1880", "1900")</t>
+  </si>
+  <si>
+    <t>c("1799", "1819", "1839", "1859", "1879", "1899", "1919", "1945", "1839", "1859", "1879", "1899", "1919")</t>
+  </si>
+  <si>
+    <t>c("Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Labourers_Wage-historical.xlsx", "Labourers_Wage-historical.xlsx", "Labourers_Wage-historical.xlsx", "Labourers_Wage-historical.xlsx", "Labourers_Wage-historical.xlsx")</t>
+  </si>
+  <si>
+    <t>c("Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Labourers Real Wage", "Labourers Real Wage", "Labourers Real Wage", "Labourers Real Wage", "Labourers Real Wage")</t>
+  </si>
+  <si>
+    <t>c(11.1, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(13.5, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(15, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(15.8, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 14.1, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 15, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 16.7, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 14.9, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 19, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 20.5, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 19.6, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 23, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 32, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 32, NA, NA, NA, NA, NA, 7.3619957537155, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, 6.66733333333333, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 40, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 53.5, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 58.15, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 60.8, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 60.55, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 69.16, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 76.7, NA, NA, NA, NA, NA, 4.0112749504463, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 81.28, NA, NA, NA, NA, NA, 4.16970387239395, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 88.95, NA, NA, NA, NA, NA, 4.672, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 95.93, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 97.3, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 99.45, NA, NA, NA, NA, NA, 4.00427371199542, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 100.44, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 106.9, NA, NA, NA, NA, NA, 3.87246814896818, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 104, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 104.03, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 108.85, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 111.05, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 116.73, NA, NA, NA, NA, NA, 3.84740443611577, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 113.2, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 109.03, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, 4.24600835874374, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 112, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 110.75, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 117.5, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 115.5, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, 4.29804615613113, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, 4.00519761355305, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 4.91858509329796, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 124.88, NA, NA, NA, NA, NA, 6.61765868461326, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 125.66, NA, NA, NA, NA, NA, 5.51132497725846, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 128.5, NA, NA, NA, NA, NA, 5.51806471443538, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 5.32954619306523, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 108.79, NA, NA, NA, NA, NA, 5.80133545687554, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 109.61, NA, NA, NA, NA, NA, 5.55820668314288, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 110.13, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 109.81, NA, NA, NA, NA, NA, 5.47061767880232, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 5.25260500316723, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 110.37, NA, NA, NA, NA, NA, 5.02525180411528, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 110.37, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 110.74, NA, NA, NA, NA, NA, 4.66907765528349, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 110.07, NA, NA, NA, NA, NA, 4.39007042977353, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 109.21, NA, NA, NA, NA, NA, 7.36349530159109, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 108.86, NA, NA, NA, NA, NA, 6.819055899528, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 109.35, NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 109.83, NA, NA, NA, NA, NA, 5.43898412799223, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 109.31, NA, NA, NA, NA, NA, 5.0197022496059, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.15, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 109.81, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.12, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.26, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.58, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.94, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.85, NA, NA, NA, NA, NA, 4.17959723627904, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 109.54, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 108.97, NA, NA, NA, NA, NA, 3.89500195680568, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 109.38, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.01, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 109.97, NA, NA, NA, NA, NA, 4.78264770971619, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.77, NA, NA, NA, NA, NA, 6.43383681692251, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.89, NA, NA, NA, NA, NA, 5.35868258236974, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.02, NA, NA, NA, NA, NA, 5.36523237554459, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 109.79, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.24, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 110.24, NA, NA, NA, NA, NA, 5.1820268154181, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 110.1, NA, NA, NA, NA, NA, 5.64051978316379)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 110.19, NA, NA, NA, NA, NA, 5.40424303512427)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 110.06, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 109.79, NA, NA, NA, NA, NA, 5.31912252556105)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 109.99, NA, NA, NA, NA, NA, 5.10725403611976)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 109.8, NA, NA, NA, NA, NA, 4.88630826444634)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 109.24, NA, NA, NA, NA, NA, 4.54017206538726)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 109.93, NA, NA, NA, NA, NA, 4.26902801727263)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 109.88, NA, NA, NA, NA, NA, 7.15865374304285)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 109.26, NA, NA, NA, NA, NA, 6.62955811421574)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 109, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 110.28, NA, NA, NA, NA, NA, 5.28838049367564)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 110.22, NA, NA, NA, NA, NA, 4.88091511137599)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 110.13, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 5.92417061611, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 7.05218617772, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 7.54716981132, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 8.30564784053, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 8.89679715302, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 9.26784059314, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 9.44287063267, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 9.54198473282, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 10.0704934542, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 10.3519668737, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 9.5328884652, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 7.32600732601, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.83526999316, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.25390869293, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.08272506083, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.18429189858, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.16142945163, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.09384521633, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 5.58347292016, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 5.0994390617, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 5.20020800832, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>Borders Start Year</t>
+  </si>
+  <si>
+    <t>Borders End Year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>Ottoman</t>
-  </si>
-  <si>
-    <t>Exchange_Rates_UK-historical.xlsx</t>
-  </si>
-  <si>
-    <t>Labourers_Wage-historical.xlsx</t>
   </si>
   <si>
     <t>Exchange Rates to UK Pound</t>
@@ -3306,577 +3664,1585 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="n">
-        <v>774.0</v>
-      </c>
-      <c r="C2"/>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
       <c r="D2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2" t="s">
+        <v>531</v>
+      </c>
+      <c r="I2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L2" t="s">
+        <v>526</v>
+      </c>
+      <c r="M2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N2" t="s">
+        <v>526</v>
+      </c>
+      <c r="O2" t="s">
+        <v>526</v>
+      </c>
+      <c r="P2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S2" t="s">
+        <v>526</v>
+      </c>
+      <c r="T2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="II2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KM2" t="s">
         <v>532</v>
       </c>
-      <c r="E2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="KN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KQ2" t="s">
         <v>533</v>
       </c>
-      <c r="H2" t="s">
+      <c r="KR2" t="s">
+        <v>534</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>534</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KU2" t="s">
         <v>535</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2"/>
-      <c r="FV2"/>
-      <c r="FW2"/>
-      <c r="FX2"/>
-      <c r="FY2"/>
-      <c r="FZ2"/>
-      <c r="GA2"/>
-      <c r="GB2"/>
-      <c r="GC2"/>
-      <c r="GD2"/>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2"/>
-      <c r="GH2"/>
-      <c r="GI2"/>
-      <c r="GJ2"/>
-      <c r="GK2"/>
-      <c r="GL2"/>
-      <c r="GM2"/>
-      <c r="GN2"/>
-      <c r="GO2"/>
-      <c r="GP2"/>
-      <c r="GQ2"/>
-      <c r="GR2"/>
-      <c r="GS2"/>
-      <c r="GT2"/>
-      <c r="GU2"/>
-      <c r="GV2"/>
-      <c r="GW2"/>
-      <c r="GX2"/>
-      <c r="GY2"/>
-      <c r="GZ2"/>
-      <c r="HA2"/>
-      <c r="HB2"/>
-      <c r="HC2"/>
-      <c r="HD2"/>
-      <c r="HE2"/>
-      <c r="HF2"/>
-      <c r="HG2"/>
-      <c r="HH2"/>
-      <c r="HI2"/>
-      <c r="HJ2"/>
-      <c r="HK2"/>
-      <c r="HL2"/>
-      <c r="HM2"/>
-      <c r="HN2"/>
-      <c r="HO2"/>
-      <c r="HP2"/>
-      <c r="HQ2"/>
-      <c r="HR2"/>
-      <c r="HS2"/>
-      <c r="HT2"/>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
-      <c r="IG2"/>
-      <c r="IH2"/>
-      <c r="II2"/>
-      <c r="IJ2"/>
-      <c r="IK2"/>
-      <c r="IL2"/>
-      <c r="IM2"/>
-      <c r="IN2"/>
-      <c r="IO2"/>
-      <c r="IP2"/>
-      <c r="IQ2"/>
-      <c r="IR2"/>
-      <c r="IS2"/>
-      <c r="IT2"/>
-      <c r="IU2"/>
-      <c r="IV2"/>
-      <c r="IW2"/>
-      <c r="IX2"/>
-      <c r="IY2"/>
-      <c r="IZ2"/>
-      <c r="JA2"/>
-      <c r="JB2"/>
-      <c r="JC2"/>
-      <c r="JD2"/>
-      <c r="JE2"/>
-      <c r="JF2"/>
-      <c r="JG2"/>
-      <c r="JH2"/>
-      <c r="JI2"/>
-      <c r="JJ2"/>
-      <c r="JK2"/>
-      <c r="JL2"/>
-      <c r="JM2"/>
-      <c r="JN2"/>
-      <c r="JO2"/>
-      <c r="JP2"/>
-      <c r="JQ2"/>
-      <c r="JR2"/>
-      <c r="JS2"/>
-      <c r="JT2"/>
-      <c r="JU2"/>
-      <c r="JV2"/>
-      <c r="JW2"/>
-      <c r="JX2"/>
-      <c r="JY2"/>
-      <c r="JZ2"/>
-      <c r="KA2"/>
-      <c r="KB2"/>
-      <c r="KC2"/>
-      <c r="KD2"/>
-      <c r="KE2"/>
-      <c r="KF2"/>
-      <c r="KG2"/>
-      <c r="KH2"/>
-      <c r="KI2"/>
-      <c r="KJ2"/>
-      <c r="KK2"/>
-      <c r="KL2"/>
-      <c r="KM2" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="KN2"/>
-      <c r="KO2"/>
-      <c r="KP2"/>
-      <c r="KQ2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="KT2"/>
-      <c r="KU2" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="KW2"/>
-      <c r="KX2"/>
-      <c r="KY2"/>
-      <c r="KZ2"/>
-      <c r="LA2"/>
-      <c r="LB2"/>
-      <c r="LC2"/>
-      <c r="LD2"/>
-      <c r="LE2"/>
-      <c r="LF2"/>
-      <c r="LG2"/>
-      <c r="LH2"/>
-      <c r="LI2"/>
-      <c r="LJ2"/>
-      <c r="LK2"/>
-      <c r="LL2"/>
-      <c r="LM2"/>
-      <c r="LN2"/>
-      <c r="LO2"/>
-      <c r="LP2"/>
-      <c r="LQ2"/>
-      <c r="LR2"/>
-      <c r="LS2"/>
-      <c r="LT2"/>
-      <c r="LU2"/>
-      <c r="LV2"/>
-      <c r="LW2"/>
-      <c r="LX2"/>
-      <c r="LY2"/>
-      <c r="LZ2"/>
-      <c r="MA2"/>
-      <c r="MB2"/>
-      <c r="MC2"/>
-      <c r="MD2"/>
-      <c r="ME2"/>
-      <c r="MF2"/>
-      <c r="MG2"/>
-      <c r="MH2"/>
-      <c r="MI2"/>
-      <c r="MJ2"/>
-      <c r="MK2"/>
-      <c r="ML2"/>
-      <c r="MM2"/>
-      <c r="MN2"/>
-      <c r="MO2"/>
-      <c r="MP2"/>
-      <c r="MQ2"/>
-      <c r="MR2"/>
-      <c r="MS2"/>
-      <c r="MT2"/>
-      <c r="MU2"/>
-      <c r="MV2"/>
-      <c r="MW2"/>
-      <c r="MX2"/>
-      <c r="MY2"/>
-      <c r="MZ2"/>
-      <c r="NA2"/>
-      <c r="NB2"/>
-      <c r="NC2"/>
-      <c r="ND2"/>
-      <c r="NE2"/>
-      <c r="NF2"/>
-      <c r="NG2"/>
-      <c r="NH2"/>
-      <c r="NI2"/>
-      <c r="NJ2"/>
-      <c r="NK2"/>
-      <c r="NL2"/>
-      <c r="NM2"/>
-      <c r="NN2"/>
-      <c r="NO2"/>
-      <c r="NP2"/>
-      <c r="NQ2"/>
-      <c r="NR2"/>
-      <c r="NS2"/>
-      <c r="NT2"/>
-      <c r="NU2"/>
-      <c r="NV2"/>
-      <c r="NW2"/>
-      <c r="NX2"/>
-      <c r="NY2"/>
-      <c r="NZ2"/>
-      <c r="OA2"/>
-      <c r="OB2"/>
-      <c r="OC2"/>
-      <c r="OD2"/>
-      <c r="OE2"/>
-      <c r="OF2"/>
-      <c r="OG2"/>
-      <c r="OH2"/>
-      <c r="OI2"/>
-      <c r="OJ2"/>
-      <c r="OK2"/>
-      <c r="OL2"/>
-      <c r="OM2"/>
-      <c r="ON2"/>
-      <c r="OO2"/>
-      <c r="OP2"/>
-      <c r="OQ2"/>
-      <c r="OR2"/>
-      <c r="OS2"/>
-      <c r="OT2"/>
-      <c r="OU2"/>
-      <c r="OV2"/>
-      <c r="OW2"/>
-      <c r="OX2"/>
-      <c r="OY2"/>
-      <c r="OZ2"/>
-      <c r="PA2"/>
-      <c r="PB2"/>
-      <c r="PC2"/>
-      <c r="PD2"/>
-      <c r="PE2"/>
-      <c r="PF2"/>
-      <c r="PG2"/>
-      <c r="PH2"/>
-      <c r="PI2"/>
-      <c r="PJ2"/>
-      <c r="PK2"/>
-      <c r="PL2"/>
-      <c r="PM2"/>
-      <c r="PN2"/>
-      <c r="PO2"/>
-      <c r="PP2"/>
-      <c r="PQ2"/>
-      <c r="PR2"/>
-      <c r="PS2"/>
-      <c r="PT2"/>
-      <c r="PU2"/>
-      <c r="PV2"/>
-      <c r="PW2"/>
-      <c r="PX2"/>
-      <c r="PY2"/>
-      <c r="PZ2"/>
-      <c r="QA2"/>
-      <c r="QB2"/>
-      <c r="QC2"/>
-      <c r="QD2"/>
-      <c r="QE2"/>
-      <c r="QF2"/>
-      <c r="QG2"/>
-      <c r="QH2"/>
-      <c r="QI2"/>
-      <c r="QJ2"/>
-      <c r="QK2"/>
-      <c r="QL2"/>
-      <c r="QM2"/>
-      <c r="QN2"/>
-      <c r="QO2"/>
-      <c r="QP2"/>
-      <c r="QQ2"/>
-      <c r="QR2"/>
-      <c r="QS2"/>
-      <c r="QT2"/>
-      <c r="QU2"/>
-      <c r="QV2"/>
-      <c r="QW2"/>
-      <c r="QX2"/>
-      <c r="QY2"/>
-      <c r="QZ2"/>
-      <c r="RA2"/>
-      <c r="RB2"/>
-      <c r="RC2"/>
-      <c r="RD2"/>
-      <c r="RE2"/>
-      <c r="RF2"/>
-      <c r="RG2"/>
-      <c r="RH2"/>
-      <c r="RI2"/>
-      <c r="RJ2"/>
-      <c r="RK2"/>
-      <c r="RL2"/>
-      <c r="RM2"/>
-      <c r="RN2"/>
-      <c r="RO2"/>
-      <c r="RP2"/>
-      <c r="RQ2"/>
-      <c r="RR2"/>
-      <c r="RS2"/>
-      <c r="RT2"/>
-      <c r="RU2"/>
-      <c r="RV2"/>
-      <c r="RW2"/>
-      <c r="RX2"/>
-      <c r="RY2"/>
-      <c r="RZ2"/>
-      <c r="SA2"/>
-      <c r="SB2"/>
-      <c r="SC2"/>
-      <c r="SD2"/>
-      <c r="SE2"/>
-      <c r="SF2"/>
-      <c r="SG2"/>
-      <c r="SH2"/>
-      <c r="SI2"/>
-      <c r="SJ2"/>
-      <c r="SK2"/>
-      <c r="SL2"/>
-      <c r="SM2"/>
-      <c r="SN2"/>
-      <c r="SO2"/>
-      <c r="SP2"/>
-      <c r="SQ2"/>
-      <c r="SR2"/>
-      <c r="SS2"/>
-      <c r="ST2"/>
-      <c r="SU2"/>
-      <c r="SV2"/>
-      <c r="SW2"/>
-      <c r="SX2"/>
-      <c r="SY2"/>
-      <c r="SZ2"/>
-      <c r="TA2"/>
-      <c r="TB2"/>
-      <c r="TC2"/>
-      <c r="TD2"/>
+      <c r="KV2" t="s">
+        <v>536</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>537</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>538</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>539</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>539</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>540</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>539</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>541</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>542</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>543</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>544</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>545</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>542</v>
+      </c>
+      <c r="LN2" t="s">
+        <v>546</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>546</v>
+      </c>
+      <c r="LP2" t="s">
+        <v>546</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>547</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>548</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>549</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>550</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>551</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>552</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>553</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>554</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>555</v>
+      </c>
+      <c r="MB2" t="s">
+        <v>556</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>557</v>
+      </c>
+      <c r="MD2" t="s">
+        <v>558</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>559</v>
+      </c>
+      <c r="MF2" t="s">
+        <v>560</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>561</v>
+      </c>
+      <c r="MH2" t="s">
+        <v>562</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>563</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>564</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>565</v>
+      </c>
+      <c r="ML2" t="s">
+        <v>566</v>
+      </c>
+      <c r="MM2" t="s">
+        <v>567</v>
+      </c>
+      <c r="MN2" t="s">
+        <v>568</v>
+      </c>
+      <c r="MO2" t="s">
+        <v>569</v>
+      </c>
+      <c r="MP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MR2" t="s">
+        <v>570</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>571</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>572</v>
+      </c>
+      <c r="MV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MX2" t="s">
+        <v>573</v>
+      </c>
+      <c r="MY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MZ2" t="s">
+        <v>574</v>
+      </c>
+      <c r="NA2" t="s">
+        <v>575</v>
+      </c>
+      <c r="NB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>576</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NF2" t="s">
+        <v>577</v>
+      </c>
+      <c r="NG2" t="s">
+        <v>578</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>579</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>580</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>581</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>582</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>583</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>584</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>585</v>
+      </c>
+      <c r="NQ2" t="s">
+        <v>586</v>
+      </c>
+      <c r="NR2" t="s">
+        <v>587</v>
+      </c>
+      <c r="NS2" t="s">
+        <v>588</v>
+      </c>
+      <c r="NT2" t="s">
+        <v>589</v>
+      </c>
+      <c r="NU2" t="s">
+        <v>590</v>
+      </c>
+      <c r="NV2" t="s">
+        <v>591</v>
+      </c>
+      <c r="NW2" t="s">
+        <v>592</v>
+      </c>
+      <c r="NX2" t="s">
+        <v>593</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>594</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>595</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>596</v>
+      </c>
+      <c r="OB2" t="s">
+        <v>597</v>
+      </c>
+      <c r="OC2" t="s">
+        <v>598</v>
+      </c>
+      <c r="OD2" t="s">
+        <v>599</v>
+      </c>
+      <c r="OE2" t="s">
+        <v>600</v>
+      </c>
+      <c r="OF2" t="s">
+        <v>601</v>
+      </c>
+      <c r="OG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OH2" t="s">
+        <v>603</v>
+      </c>
+      <c r="OI2" t="s">
+        <v>604</v>
+      </c>
+      <c r="OJ2" t="s">
+        <v>605</v>
+      </c>
+      <c r="OK2" t="s">
+        <v>606</v>
+      </c>
+      <c r="OL2" t="s">
+        <v>607</v>
+      </c>
+      <c r="OM2" t="s">
+        <v>608</v>
+      </c>
+      <c r="ON2" t="s">
+        <v>609</v>
+      </c>
+      <c r="OO2" t="s">
+        <v>610</v>
+      </c>
+      <c r="OP2" t="s">
+        <v>611</v>
+      </c>
+      <c r="OQ2" t="s">
+        <v>612</v>
+      </c>
+      <c r="OR2" t="s">
+        <v>613</v>
+      </c>
+      <c r="OS2" t="s">
+        <v>614</v>
+      </c>
+      <c r="OT2" t="s">
+        <v>615</v>
+      </c>
+      <c r="OU2" t="s">
+        <v>616</v>
+      </c>
+      <c r="OV2" t="s">
+        <v>617</v>
+      </c>
+      <c r="OW2" t="s">
+        <v>618</v>
+      </c>
+      <c r="OX2" t="s">
+        <v>619</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>620</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>621</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>622</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>623</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>624</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>625</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>626</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>627</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PN2" t="s">
+        <v>628</v>
+      </c>
+      <c r="PO2" t="s">
+        <v>629</v>
+      </c>
+      <c r="PP2" t="s">
+        <v>630</v>
+      </c>
+      <c r="PQ2" t="s">
+        <v>631</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>632</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>633</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>634</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>635</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>636</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>637</v>
+      </c>
+      <c r="PX2" t="s">
+        <v>638</v>
+      </c>
+      <c r="PY2" t="s">
+        <v>639</v>
+      </c>
+      <c r="PZ2" t="s">
+        <v>640</v>
+      </c>
+      <c r="QA2" t="s">
+        <v>641</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>642</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>643</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>644</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>645</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>646</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>647</v>
+      </c>
+      <c r="QH2" t="s">
+        <v>648</v>
+      </c>
+      <c r="QI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ST2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TD2" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B3" t="n">
-        <v>775.0</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
       <c r="C3"/>
-      <c r="D3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H3" t="s">
-        <v>535</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -4177,56 +5543,26 @@
       <c r="KT3"/>
       <c r="KU3"/>
       <c r="KV3"/>
-      <c r="KW3" t="n">
-        <v>12.0</v>
-      </c>
+      <c r="KW3"/>
       <c r="KX3"/>
-      <c r="KY3" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="KY3"/>
+      <c r="KZ3"/>
+      <c r="LA3"/>
+      <c r="LB3"/>
+      <c r="LC3"/>
+      <c r="LD3"/>
+      <c r="LE3"/>
+      <c r="LF3"/>
+      <c r="LG3"/>
       <c r="LH3"/>
       <c r="LI3"/>
       <c r="LJ3"/>
-      <c r="LK3" t="n">
-        <v>23.0</v>
-      </c>
+      <c r="LK3"/>
       <c r="LL3"/>
-      <c r="LM3" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>32.0</v>
-      </c>
+      <c r="LM3"/>
+      <c r="LN3"/>
+      <c r="LO3"/>
+      <c r="LP3"/>
       <c r="LQ3"/>
       <c r="LR3"/>
       <c r="LS3"/>
@@ -4425,28 +5761,14 @@
       <c r="TD3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B4" t="n">
-        <v>776.0</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" t="s">
-        <v>532</v>
-      </c>
-      <c r="E4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" t="s">
-        <v>533</v>
-      </c>
-      <c r="H4" t="s">
-        <v>535</v>
-      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -4767,60 +6089,26 @@
       <c r="LN4"/>
       <c r="LO4"/>
       <c r="LP4"/>
-      <c r="LQ4" t="n">
-        <v>32.0</v>
-      </c>
+      <c r="LQ4"/>
       <c r="LR4"/>
-      <c r="LS4" t="n">
-        <v>40.0</v>
-      </c>
+      <c r="LS4"/>
       <c r="LT4"/>
       <c r="LU4"/>
-      <c r="LV4" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>58.15</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>60.55</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>69.16</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>81.28</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>88.95</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>95.93</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>99.45</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>100.44</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>106.9</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>104.03</v>
-      </c>
+      <c r="LV4"/>
+      <c r="LW4"/>
+      <c r="LX4"/>
+      <c r="LY4"/>
+      <c r="LZ4"/>
+      <c r="MA4"/>
+      <c r="MB4"/>
+      <c r="MC4"/>
+      <c r="MD4"/>
+      <c r="ME4"/>
+      <c r="MF4"/>
+      <c r="MG4"/>
+      <c r="MH4"/>
+      <c r="MI4"/>
+      <c r="MJ4"/>
       <c r="MK4"/>
       <c r="ML4"/>
       <c r="MM4"/>
@@ -4999,28 +6287,14 @@
       <c r="TD4"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B5" t="n">
-        <v>777.0</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F5" t="s">
-        <v>367</v>
-      </c>
-      <c r="G5" t="s">
-        <v>533</v>
-      </c>
-      <c r="H5" t="s">
-        <v>535</v>
-      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -5361,40 +6635,22 @@
       <c r="MH5"/>
       <c r="MI5"/>
       <c r="MJ5"/>
-      <c r="MK5" t="n">
-        <v>108.85</v>
-      </c>
-      <c r="ML5" t="n">
-        <v>111.05</v>
-      </c>
-      <c r="MM5" t="n">
-        <v>116.73</v>
-      </c>
-      <c r="MN5" t="n">
-        <v>113.2</v>
-      </c>
-      <c r="MO5" t="n">
-        <v>109.03</v>
-      </c>
+      <c r="MK5"/>
+      <c r="ML5"/>
+      <c r="MM5"/>
+      <c r="MN5"/>
+      <c r="MO5"/>
       <c r="MP5"/>
       <c r="MQ5"/>
       <c r="MR5"/>
       <c r="MS5"/>
-      <c r="MT5" t="n">
-        <v>112.0</v>
-      </c>
-      <c r="MU5" t="n">
-        <v>110.75</v>
-      </c>
+      <c r="MT5"/>
+      <c r="MU5"/>
       <c r="MV5"/>
       <c r="MW5"/>
-      <c r="MX5" t="n">
-        <v>117.5</v>
-      </c>
+      <c r="MX5"/>
       <c r="MY5"/>
-      <c r="MZ5" t="n">
-        <v>115.5</v>
-      </c>
+      <c r="MZ5"/>
       <c r="NA5"/>
       <c r="NB5"/>
       <c r="NC5"/>
@@ -5557,28 +6813,14 @@
       <c r="TD5"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B6" t="n">
-        <v>778.0</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
       <c r="C6"/>
-      <c r="D6" t="s">
-        <v>532</v>
-      </c>
-      <c r="E6" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6" t="s">
-        <v>387</v>
-      </c>
-      <c r="G6" t="s">
-        <v>533</v>
-      </c>
-      <c r="H6" t="s">
-        <v>535</v>
-      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -5941,52 +7183,24 @@
       <c r="ND6"/>
       <c r="NE6"/>
       <c r="NF6"/>
-      <c r="NG6" t="n">
-        <v>124.88</v>
-      </c>
-      <c r="NH6" t="n">
-        <v>125.66</v>
-      </c>
-      <c r="NI6" t="n">
-        <v>128.5</v>
-      </c>
+      <c r="NG6"/>
+      <c r="NH6"/>
+      <c r="NI6"/>
       <c r="NJ6"/>
       <c r="NK6"/>
       <c r="NL6"/>
-      <c r="NM6" t="n">
-        <v>108.79</v>
-      </c>
-      <c r="NN6" t="n">
-        <v>109.61</v>
-      </c>
-      <c r="NO6" t="n">
-        <v>110.13</v>
-      </c>
-      <c r="NP6" t="n">
-        <v>109.81</v>
-      </c>
+      <c r="NM6"/>
+      <c r="NN6"/>
+      <c r="NO6"/>
+      <c r="NP6"/>
       <c r="NQ6"/>
-      <c r="NR6" t="n">
-        <v>110.37</v>
-      </c>
-      <c r="NS6" t="n">
-        <v>110.37</v>
-      </c>
-      <c r="NT6" t="n">
-        <v>110.74</v>
-      </c>
-      <c r="NU6" t="n">
-        <v>110.07</v>
-      </c>
-      <c r="NV6" t="n">
-        <v>109.21</v>
-      </c>
-      <c r="NW6" t="n">
-        <v>108.86</v>
-      </c>
-      <c r="NX6" t="n">
-        <v>109.35</v>
-      </c>
+      <c r="NR6"/>
+      <c r="NS6"/>
+      <c r="NT6"/>
+      <c r="NU6"/>
+      <c r="NV6"/>
+      <c r="NW6"/>
+      <c r="NX6"/>
       <c r="NY6"/>
       <c r="NZ6"/>
       <c r="OA6"/>
@@ -6125,28 +7339,14 @@
       <c r="TD6"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>529</v>
-      </c>
-      <c r="B7" t="n">
-        <v>779.0</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
       <c r="C7"/>
-      <c r="D7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G7" t="s">
-        <v>533</v>
-      </c>
-      <c r="H7" t="s">
-        <v>535</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -6527,66 +7727,26 @@
       <c r="NV7"/>
       <c r="NW7"/>
       <c r="NX7"/>
-      <c r="NY7" t="n">
-        <v>109.83</v>
-      </c>
-      <c r="NZ7" t="n">
-        <v>109.31</v>
-      </c>
-      <c r="OA7" t="n">
-        <v>110.15</v>
-      </c>
-      <c r="OB7" t="n">
-        <v>109.81</v>
-      </c>
-      <c r="OC7" t="n">
-        <v>110.12</v>
-      </c>
-      <c r="OD7" t="n">
-        <v>110.26</v>
-      </c>
-      <c r="OE7" t="n">
-        <v>110.58</v>
-      </c>
-      <c r="OF7" t="n">
-        <v>110.94</v>
-      </c>
-      <c r="OG7" t="n">
-        <v>110.85</v>
-      </c>
-      <c r="OH7" t="n">
-        <v>109.54</v>
-      </c>
-      <c r="OI7" t="n">
-        <v>108.97</v>
-      </c>
-      <c r="OJ7" t="n">
-        <v>109.38</v>
-      </c>
-      <c r="OK7" t="n">
-        <v>110.01</v>
-      </c>
-      <c r="OL7" t="n">
-        <v>109.97</v>
-      </c>
-      <c r="OM7" t="n">
-        <v>110.77</v>
-      </c>
-      <c r="ON7" t="n">
-        <v>110.89</v>
-      </c>
-      <c r="OO7" t="n">
-        <v>110.02</v>
-      </c>
-      <c r="OP7" t="n">
-        <v>109.79</v>
-      </c>
-      <c r="OQ7" t="n">
-        <v>110.24</v>
-      </c>
-      <c r="OR7" t="n">
-        <v>110.24</v>
-      </c>
+      <c r="NY7"/>
+      <c r="NZ7"/>
+      <c r="OA7"/>
+      <c r="OB7"/>
+      <c r="OC7"/>
+      <c r="OD7"/>
+      <c r="OE7"/>
+      <c r="OF7"/>
+      <c r="OG7"/>
+      <c r="OH7"/>
+      <c r="OI7"/>
+      <c r="OJ7"/>
+      <c r="OK7"/>
+      <c r="OL7"/>
+      <c r="OM7"/>
+      <c r="ON7"/>
+      <c r="OO7"/>
+      <c r="OP7"/>
+      <c r="OQ7"/>
+      <c r="OR7"/>
       <c r="OS7"/>
       <c r="OT7"/>
       <c r="OU7"/>
@@ -6705,28 +7865,14 @@
       <c r="TD7"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>530</v>
-      </c>
-      <c r="B8" t="n">
-        <v>780.0</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
       <c r="C8"/>
-      <c r="D8" t="s">
-        <v>532</v>
-      </c>
-      <c r="E8" t="s">
-        <v>408</v>
-      </c>
-      <c r="F8" t="s">
-        <v>427</v>
-      </c>
-      <c r="G8" t="s">
-        <v>533</v>
-      </c>
-      <c r="H8" t="s">
-        <v>535</v>
-      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -7127,49 +8273,21 @@
       <c r="OP8"/>
       <c r="OQ8"/>
       <c r="OR8"/>
-      <c r="OS8" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="OT8" t="n">
-        <v>110.19</v>
-      </c>
-      <c r="OU8" t="n">
-        <v>110.06</v>
-      </c>
-      <c r="OV8" t="n">
-        <v>109.79</v>
-      </c>
-      <c r="OW8" t="n">
-        <v>109.99</v>
-      </c>
-      <c r="OX8" t="n">
-        <v>109.8</v>
-      </c>
+      <c r="OS8"/>
+      <c r="OT8"/>
+      <c r="OU8"/>
+      <c r="OV8"/>
+      <c r="OW8"/>
+      <c r="OX8"/>
       <c r="OY8"/>
-      <c r="OZ8" t="n">
-        <v>109.24</v>
-      </c>
-      <c r="PA8" t="n">
-        <v>109.93</v>
-      </c>
-      <c r="PB8" t="n">
-        <v>109.88</v>
-      </c>
-      <c r="PC8" t="n">
-        <v>109.26</v>
-      </c>
-      <c r="PD8" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="PE8" t="n">
-        <v>110.28</v>
-      </c>
-      <c r="PF8" t="n">
-        <v>110.22</v>
-      </c>
-      <c r="PG8" t="n">
-        <v>110.13</v>
-      </c>
+      <c r="OZ8"/>
+      <c r="PA8"/>
+      <c r="PB8"/>
+      <c r="PC8"/>
+      <c r="PD8"/>
+      <c r="PE8"/>
+      <c r="PF8"/>
+      <c r="PG8"/>
       <c r="PH8"/>
       <c r="PI8"/>
       <c r="PJ8"/>
@@ -7273,28 +8391,14 @@
       <c r="TD8"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>531</v>
-      </c>
-      <c r="B9" t="n">
-        <v>781.0</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
       <c r="C9"/>
-      <c r="D9" t="s">
-        <v>532</v>
-      </c>
-      <c r="E9" t="s">
-        <v>428</v>
-      </c>
-      <c r="F9" t="s">
-        <v>453</v>
-      </c>
-      <c r="G9" t="s">
-        <v>533</v>
-      </c>
-      <c r="H9" t="s">
-        <v>535</v>
-      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -7716,69 +8820,27 @@
       <c r="PK9"/>
       <c r="PL9"/>
       <c r="PM9"/>
-      <c r="PN9" t="n">
-        <v>5.92417061611</v>
-      </c>
-      <c r="PO9" t="n">
-        <v>7.0521861777199994</v>
-      </c>
-      <c r="PP9" t="n">
-        <v>7.54716981132</v>
-      </c>
-      <c r="PQ9" t="n">
-        <v>8.30564784053</v>
-      </c>
-      <c r="PR9" t="n">
-        <v>8.89679715302</v>
-      </c>
-      <c r="PS9" t="n">
-        <v>9.267840593139999</v>
-      </c>
-      <c r="PT9" t="n">
-        <v>9.44287063267</v>
-      </c>
-      <c r="PU9" t="n">
-        <v>9.54198473282</v>
-      </c>
-      <c r="PV9" t="n">
-        <v>10.0704934542</v>
-      </c>
-      <c r="PW9" t="n">
-        <v>10.3519668737</v>
-      </c>
-      <c r="PX9" t="n">
-        <v>9.5328884652</v>
-      </c>
-      <c r="PY9" t="n">
-        <v>7.326007326010001</v>
-      </c>
-      <c r="PZ9" t="n">
-        <v>6.83526999316</v>
-      </c>
-      <c r="QA9" t="n">
-        <v>6.25390869293</v>
-      </c>
-      <c r="QB9" t="n">
-        <v>6.0827250608300005</v>
-      </c>
-      <c r="QC9" t="n">
-        <v>6.184291898580001</v>
-      </c>
-      <c r="QD9" t="n">
-        <v>6.16142945163</v>
-      </c>
-      <c r="QE9" t="n">
-        <v>6.09384521633</v>
-      </c>
-      <c r="QF9" t="n">
-        <v>5.58347292016</v>
-      </c>
-      <c r="QG9" t="n">
-        <v>5.0994390617</v>
-      </c>
-      <c r="QH9" t="n">
-        <v>5.20020800832</v>
-      </c>
+      <c r="PN9"/>
+      <c r="PO9"/>
+      <c r="PP9"/>
+      <c r="PQ9"/>
+      <c r="PR9"/>
+      <c r="PS9"/>
+      <c r="PT9"/>
+      <c r="PU9"/>
+      <c r="PV9"/>
+      <c r="PW9"/>
+      <c r="PX9"/>
+      <c r="PY9"/>
+      <c r="PZ9"/>
+      <c r="QA9"/>
+      <c r="QB9"/>
+      <c r="QC9"/>
+      <c r="QD9"/>
+      <c r="QE9"/>
+      <c r="QF9"/>
+      <c r="QG9"/>
+      <c r="QH9"/>
       <c r="QI9"/>
       <c r="QJ9"/>
       <c r="QK9"/>
@@ -7855,28 +8917,14 @@
       <c r="TD9"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>526</v>
-      </c>
-      <c r="B10" t="n">
-        <v>776.0</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
       <c r="C10"/>
-      <c r="D10" t="s">
-        <v>532</v>
-      </c>
-      <c r="E10" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" t="s">
-        <v>534</v>
-      </c>
-      <c r="H10" t="s">
-        <v>536</v>
-      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -8197,12 +9245,8 @@
       <c r="LN10"/>
       <c r="LO10"/>
       <c r="LP10"/>
-      <c r="LQ10" t="n">
-        <v>7.3619957537155</v>
-      </c>
-      <c r="LR10" t="n">
-        <v>6.66733333333333</v>
-      </c>
+      <c r="LQ10"/>
+      <c r="LR10"/>
       <c r="LS10"/>
       <c r="LT10"/>
       <c r="LU10"/>
@@ -8211,24 +9255,14 @@
       <c r="LX10"/>
       <c r="LY10"/>
       <c r="LZ10"/>
-      <c r="MA10" t="n">
-        <v>4.0112749504463</v>
-      </c>
-      <c r="MB10" t="n">
-        <v>4.16970387239395</v>
-      </c>
-      <c r="MC10" t="n">
-        <v>4.672</v>
-      </c>
+      <c r="MA10"/>
+      <c r="MB10"/>
+      <c r="MC10"/>
       <c r="MD10"/>
       <c r="ME10"/>
-      <c r="MF10" t="n">
-        <v>4.00427371199542</v>
-      </c>
+      <c r="MF10"/>
       <c r="MG10"/>
-      <c r="MH10" t="n">
-        <v>3.87246814896818</v>
-      </c>
+      <c r="MH10"/>
       <c r="MI10"/>
       <c r="MJ10"/>
       <c r="MK10"/>
@@ -8409,28 +9443,14 @@
       <c r="TD10"/>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B11" t="n">
-        <v>777.0</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" t="s">
-        <v>532</v>
-      </c>
-      <c r="E11" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" t="s">
-        <v>367</v>
-      </c>
-      <c r="G11" t="s">
-        <v>534</v>
-      </c>
-      <c r="H11" t="s">
-        <v>536</v>
-      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -8773,16 +9793,12 @@
       <c r="MJ11"/>
       <c r="MK11"/>
       <c r="ML11"/>
-      <c r="MM11" t="n">
-        <v>3.84740443611577</v>
-      </c>
+      <c r="MM11"/>
       <c r="MN11"/>
       <c r="MO11"/>
       <c r="MP11"/>
       <c r="MQ11"/>
-      <c r="MR11" t="n">
-        <v>4.24600835874374</v>
-      </c>
+      <c r="MR11"/>
       <c r="MS11"/>
       <c r="MT11"/>
       <c r="MU11"/>
@@ -8791,13 +9807,9 @@
       <c r="MX11"/>
       <c r="MY11"/>
       <c r="MZ11"/>
-      <c r="NA11" t="n">
-        <v>4.29804615613113</v>
-      </c>
+      <c r="NA11"/>
       <c r="NB11"/>
-      <c r="NC11" t="n">
-        <v>4.00519761355305</v>
-      </c>
+      <c r="NC11"/>
       <c r="ND11"/>
       <c r="NE11"/>
       <c r="NF11"/>
@@ -8957,28 +9969,14 @@
       <c r="TD11"/>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B12" t="n">
-        <v>778.0</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
       <c r="C12"/>
-      <c r="D12" t="s">
-        <v>532</v>
-      </c>
-      <c r="E12" t="s">
-        <v>368</v>
-      </c>
-      <c r="F12" t="s">
-        <v>387</v>
-      </c>
-      <c r="G12" t="s">
-        <v>534</v>
-      </c>
-      <c r="H12" t="s">
-        <v>536</v>
-      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -9340,52 +10338,24 @@
       <c r="NC12"/>
       <c r="ND12"/>
       <c r="NE12"/>
-      <c r="NF12" t="n">
-        <v>4.91858509329796</v>
-      </c>
-      <c r="NG12" t="n">
-        <v>6.61765868461326</v>
-      </c>
-      <c r="NH12" t="n">
-        <v>5.51132497725846</v>
-      </c>
-      <c r="NI12" t="n">
-        <v>5.51806471443538</v>
-      </c>
+      <c r="NF12"/>
+      <c r="NG12"/>
+      <c r="NH12"/>
+      <c r="NI12"/>
       <c r="NJ12"/>
       <c r="NK12"/>
-      <c r="NL12" t="n">
-        <v>5.32954619306523</v>
-      </c>
-      <c r="NM12" t="n">
-        <v>5.80133545687554</v>
-      </c>
-      <c r="NN12" t="n">
-        <v>5.55820668314288</v>
-      </c>
+      <c r="NL12"/>
+      <c r="NM12"/>
+      <c r="NN12"/>
       <c r="NO12"/>
-      <c r="NP12" t="n">
-        <v>5.47061767880232</v>
-      </c>
-      <c r="NQ12" t="n">
-        <v>5.25260500316723</v>
-      </c>
-      <c r="NR12" t="n">
-        <v>5.02525180411528</v>
-      </c>
+      <c r="NP12"/>
+      <c r="NQ12"/>
+      <c r="NR12"/>
       <c r="NS12"/>
-      <c r="NT12" t="n">
-        <v>4.66907765528349</v>
-      </c>
-      <c r="NU12" t="n">
-        <v>4.39007042977353</v>
-      </c>
-      <c r="NV12" t="n">
-        <v>7.36349530159109</v>
-      </c>
-      <c r="NW12" t="n">
-        <v>6.819055899528</v>
-      </c>
+      <c r="NT12"/>
+      <c r="NU12"/>
+      <c r="NV12"/>
+      <c r="NW12"/>
       <c r="NX12"/>
       <c r="NY12"/>
       <c r="NZ12"/>
@@ -9525,28 +10495,14 @@
       <c r="TD12"/>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>529</v>
-      </c>
-      <c r="B13" t="n">
-        <v>779.0</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
       <c r="C13"/>
-      <c r="D13" t="s">
-        <v>532</v>
-      </c>
-      <c r="E13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F13" t="s">
-        <v>407</v>
-      </c>
-      <c r="G13" t="s">
-        <v>534</v>
-      </c>
-      <c r="H13" t="s">
-        <v>536</v>
-      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -9927,44 +10883,26 @@
       <c r="NV13"/>
       <c r="NW13"/>
       <c r="NX13"/>
-      <c r="NY13" t="n">
-        <v>5.43898412799223</v>
-      </c>
-      <c r="NZ13" t="n">
-        <v>5.0197022496059</v>
-      </c>
+      <c r="NY13"/>
+      <c r="NZ13"/>
       <c r="OA13"/>
       <c r="OB13"/>
       <c r="OC13"/>
       <c r="OD13"/>
       <c r="OE13"/>
       <c r="OF13"/>
-      <c r="OG13" t="n">
-        <v>4.17959723627904</v>
-      </c>
+      <c r="OG13"/>
       <c r="OH13"/>
-      <c r="OI13" t="n">
-        <v>3.89500195680568</v>
-      </c>
+      <c r="OI13"/>
       <c r="OJ13"/>
       <c r="OK13"/>
-      <c r="OL13" t="n">
-        <v>4.78264770971619</v>
-      </c>
-      <c r="OM13" t="n">
-        <v>6.43383681692251</v>
-      </c>
-      <c r="ON13" t="n">
-        <v>5.35868258236974</v>
-      </c>
-      <c r="OO13" t="n">
-        <v>5.36523237554459</v>
-      </c>
+      <c r="OL13"/>
+      <c r="OM13"/>
+      <c r="ON13"/>
+      <c r="OO13"/>
       <c r="OP13"/>
       <c r="OQ13"/>
-      <c r="OR13" t="n">
-        <v>5.1820268154181</v>
-      </c>
+      <c r="OR13"/>
       <c r="OS13"/>
       <c r="OT13"/>
       <c r="OU13"/>
@@ -10083,28 +11021,14 @@
       <c r="TD13"/>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B14" t="n">
-        <v>780.0</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" t="s">
-        <v>532</v>
-      </c>
-      <c r="E14" t="s">
-        <v>408</v>
-      </c>
-      <c r="F14" t="s">
-        <v>427</v>
-      </c>
-      <c r="G14" t="s">
-        <v>534</v>
-      </c>
-      <c r="H14" t="s">
-        <v>536</v>
-      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -10505,42 +11429,20 @@
       <c r="OP14"/>
       <c r="OQ14"/>
       <c r="OR14"/>
-      <c r="OS14" t="n">
-        <v>5.64051978316379</v>
-      </c>
-      <c r="OT14" t="n">
-        <v>5.40424303512427</v>
-      </c>
+      <c r="OS14"/>
+      <c r="OT14"/>
       <c r="OU14"/>
-      <c r="OV14" t="n">
-        <v>5.31912252556105</v>
-      </c>
-      <c r="OW14" t="n">
-        <v>5.10725403611976</v>
-      </c>
-      <c r="OX14" t="n">
-        <v>4.88630826444634</v>
-      </c>
+      <c r="OV14"/>
+      <c r="OW14"/>
+      <c r="OX14"/>
       <c r="OY14"/>
-      <c r="OZ14" t="n">
-        <v>4.54017206538726</v>
-      </c>
-      <c r="PA14" t="n">
-        <v>4.26902801727263</v>
-      </c>
-      <c r="PB14" t="n">
-        <v>7.15865374304285</v>
-      </c>
-      <c r="PC14" t="n">
-        <v>6.62955811421574</v>
-      </c>
+      <c r="OZ14"/>
+      <c r="PA14"/>
+      <c r="PB14"/>
+      <c r="PC14"/>
       <c r="PD14"/>
-      <c r="PE14" t="n">
-        <v>5.28838049367564</v>
-      </c>
-      <c r="PF14" t="n">
-        <v>4.88091511137599</v>
-      </c>
+      <c r="PE14"/>
+      <c r="PF14"/>
       <c r="PG14"/>
       <c r="PH14"/>
       <c r="PI14"/>
@@ -10659,112 +11561,3365 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>538</v>
+        <v>649</v>
       </c>
       <c r="C1" t="s">
-        <v>539</v>
+        <v>650</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C2" t="s">
-        <v>546</v>
+        <v>653</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1790.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>541</v>
-      </c>
-      <c r="B3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C3" t="s">
-        <v>547</v>
+        <v>653</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1794.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>541</v>
-      </c>
-      <c r="B4" t="s">
-        <v>536</v>
-      </c>
-      <c r="C4" t="s">
-        <v>548</v>
+        <v>653</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1795.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C5" t="s">
-        <v>549</v>
+        <v>653</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1796.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C6" t="s">
-        <v>550</v>
+        <v>653</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1798.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>544</v>
-      </c>
-      <c r="B7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C7" t="s">
-        <v>551</v>
+        <v>653</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>654</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>542</v>
-      </c>
-      <c r="B8" t="s">
-        <v>536</v>
-      </c>
-      <c r="C8" t="s">
-        <v>552</v>
+        <v>653</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>654</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>543</v>
-      </c>
-      <c r="B9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C9" t="s">
-        <v>553</v>
+        <v>653</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>654</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1802.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>653</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>654</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1803.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>654</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1804.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>653</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1805.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>653</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>654</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1806.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>654</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1807.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>653</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1808.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>653</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>654</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1809.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>653</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>654</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1810.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>653</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>654</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1814.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>653</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1816.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>653</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>654</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1817.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>653</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>654</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1818.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>653</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>654</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>653</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>654</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>653</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>655</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.361996</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>653</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>655</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1821.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.667333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>653</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>654</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1822.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>653</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>654</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1825.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>653</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>654</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1826.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>58.15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>653</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1827.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>653</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>654</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1828.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>60.55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>653</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>654</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1829.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>69.16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>653</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>654</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>653</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>655</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.011275</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>653</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>654</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1831.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>81.28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>653</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>655</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1831.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.169704</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>653</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>654</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1832.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>88.95</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>653</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>655</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1832.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4.672</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>653</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>654</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1833.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>95.93</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>653</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>654</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1834.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>653</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>654</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1835.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>99.45</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>653</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>655</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1835.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.004274</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>653</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>654</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1836.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100.44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>653</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>654</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1837.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>653</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>655</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1837.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.872468</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>653</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>654</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1838.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>104.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>653</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>654</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>104.03</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>653</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>108.85</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>653</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>654</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1841.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>111.05</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>653</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>116.73</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>653</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>655</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.847404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>653</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>654</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>113.2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>653</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>654</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1844.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>109.03</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>653</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>655</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1847.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.246008</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>653</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>654</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1849.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>653</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>654</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>110.75</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>653</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>654</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>653</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>654</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>653</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>655</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.298046</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>653</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>655</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1858.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4.005198</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>653</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>655</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1861.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4.918585</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>653</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>654</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1862.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>124.88</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>653</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>655</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1862.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6.617659</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>653</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>654</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>125.66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>653</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>655</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.511325</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>653</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>654</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1864.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>653</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>655</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1864.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5.518065</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>653</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>655</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1867.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5.329546</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>653</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>654</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>108.79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>653</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>655</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5.801335</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>653</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>654</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1869.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>109.61</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>653</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>655</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1869.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.558207</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>653</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>654</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1870.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>110.13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>653</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>654</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1871.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>109.81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>653</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>655</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1871.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.470618</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>653</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>655</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1872.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5.252605</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>653</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>654</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1873.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>110.37</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>653</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>655</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1873.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5.025252</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>653</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>654</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1874.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>110.37</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>653</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>654</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1875.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>653</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>655</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1875.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4.669078</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>653</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>654</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>110.07</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>653</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>655</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4.39007</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>653</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>654</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1877.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>109.21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>653</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>655</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1877.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>7.363495</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>653</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>654</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1878.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>108.86</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>653</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>655</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1878.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6.819056</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>653</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>654</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>109.35</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>653</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>654</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>109.83</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>653</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>655</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5.438984</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>653</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>654</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1881.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>109.31</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>653</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>655</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1881.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5.019702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>653</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>654</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1882.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>110.15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>653</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>654</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1883.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>109.81</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>653</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>654</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1884.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>110.12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>653</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>654</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1885.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>110.26</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>653</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>654</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1886.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>110.58</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>653</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>654</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1887.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>110.94</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>653</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>654</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1888.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>110.85</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>653</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>655</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1888.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4.179597</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>653</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>654</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>109.54</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>653</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>654</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1890.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>108.97</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>653</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>655</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1890.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3.895002</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>653</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>654</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1891.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>109.38</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>653</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>654</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1892.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>110.01</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>653</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>654</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1893.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>109.97</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>653</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>655</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1893.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4.782648</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>653</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>654</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>110.77</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>653</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>655</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6.433837</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>653</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>654</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1895.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>110.89</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>653</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>655</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1895.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.358683</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>653</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>654</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1896.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>110.02</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>653</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>655</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1896.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5.365232</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>653</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>654</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1897.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>109.79</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>653</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>654</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1898.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>110.24</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>653</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>654</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>110.24</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>653</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>655</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5.182027</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>653</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>654</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>110.1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>653</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>655</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5.64052</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>653</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>654</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1901.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>110.19</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>653</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>655</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1901.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5.404243</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>653</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>654</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1902.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>110.06</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>653</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>654</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>109.79</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>653</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>655</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5.319123</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>653</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>654</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>109.99</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>653</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>655</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5.107254</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>653</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>654</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>653</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>655</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4.886308</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>653</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>654</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1907.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>109.24</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>653</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>655</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1907.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4.540172</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>653</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>654</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1908.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>109.93</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>653</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>655</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1908.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4.269028</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>653</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>654</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>109.88</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>653</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>655</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7.158654</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>653</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>654</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>109.26</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>653</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>655</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6.629558</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>653</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>654</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1911.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>653</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>654</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>110.28</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>653</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>655</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5.28838</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>653</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>654</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>110.22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>653</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>655</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4.880915</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>653</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>654</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1914.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>110.13</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>653</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>654</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1921.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5.924171</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>653</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>654</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1922.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7.052186</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>653</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>654</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1923.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7.54717</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>653</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>654</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1924.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8.305648</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>653</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>654</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>8.896797</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>653</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>654</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9.267841</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>653</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>654</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>9.442871</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>653</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>654</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1928.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>9.541985</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>653</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>654</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10.070493</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>653</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>654</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10.351967</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>653</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>654</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1931.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>9.532888</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>653</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>654</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1932.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7.326007</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>653</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>654</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6.83527</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>653</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>654</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6.253909</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>653</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>654</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6.082725</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>653</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>654</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1936.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6.184292</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>653</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>654</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1937.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6.161429</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>653</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>654</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6.093845</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>653</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>654</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1939.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5.583473</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>653</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>654</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5.099439</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>653</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>654</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1941.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5.200208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>663</v>
+      </c>
+      <c r="B7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>662</v>
+      </c>
+      <c r="B9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>663</v>
       </c>
       <c r="B10" t="s">
-        <v>536</v>
+        <v>655</v>
       </c>
       <c r="C10" t="s">
-        <v>554</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/Ottoman_1500_1945_all_data.xlsx
+++ b/www/docs/Ottoman_1500_1945_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="559">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1588,379 +1588,43 @@
     <t>2015</t>
   </si>
   <si>
-    <t>c("geacron/774", "geacron/775", "geacron/776", "geacron/777", "geacron/778", "geacron/779", "geacron/780", "geacron/781", "geacron/776", "geacron/777", "geacron/778", "geacron/779", "geacron/780")</t>
-  </si>
-  <si>
-    <t>c(774, 775, 776, 777, 778, 779, 780, 781, 776, 777, 778, 779, 780)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c("Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman", "Ottoman")</t>
-  </si>
-  <si>
-    <t>c("1780", "1800", "1820", "1840", "1860", "1880", "1900", "1920", "1820", "1840", "1860", "1880", "1900")</t>
-  </si>
-  <si>
-    <t>c("1799", "1819", "1839", "1859", "1879", "1899", "1919", "1945", "1839", "1859", "1879", "1899", "1919")</t>
-  </si>
-  <si>
-    <t>c("Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Labourers_Wage-historical.xlsx", "Labourers_Wage-historical.xlsx", "Labourers_Wage-historical.xlsx", "Labourers_Wage-historical.xlsx", "Labourers_Wage-historical.xlsx")</t>
-  </si>
-  <si>
-    <t>c("Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Labourers Real Wage", "Labourers Real Wage", "Labourers Real Wage", "Labourers Real Wage", "Labourers Real Wage")</t>
-  </si>
-  <si>
-    <t>c(11.1, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(13.5, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(15, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(15.8, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 14.1, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 15, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 16.7, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 14.9, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 19, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 20.5, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 19.6, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 23, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 32, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 32, NA, NA, NA, NA, NA, 7.3619957537155, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, 6.66733333333333, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 40, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 53.5, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 58.15, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 60.8, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 60.55, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 69.16, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 76.7, NA, NA, NA, NA, NA, 4.0112749504463, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 81.28, NA, NA, NA, NA, NA, 4.16970387239395, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 88.95, NA, NA, NA, NA, NA, 4.672, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 95.93, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 97.3, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 99.45, NA, NA, NA, NA, NA, 4.00427371199542, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 100.44, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 106.9, NA, NA, NA, NA, NA, 3.87246814896818, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 104, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 104.03, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 108.85, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 111.05, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 116.73, NA, NA, NA, NA, NA, 3.84740443611577, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 113.2, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 109.03, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, 4.24600835874374, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 112, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 110.75, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 117.5, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 115.5, NA, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, 4.29804615613113, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, 4.00519761355305, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 4.91858509329796, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 124.88, NA, NA, NA, NA, NA, 6.61765868461326, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 125.66, NA, NA, NA, NA, NA, 5.51132497725846, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 128.5, NA, NA, NA, NA, NA, 5.51806471443538, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 5.32954619306523, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 108.79, NA, NA, NA, NA, NA, 5.80133545687554, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 109.61, NA, NA, NA, NA, NA, 5.55820668314288, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 110.13, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 109.81, NA, NA, NA, NA, NA, 5.47061767880232, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 5.25260500316723, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 110.37, NA, NA, NA, NA, NA, 5.02525180411528, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 110.37, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 110.74, NA, NA, NA, NA, NA, 4.66907765528349, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 110.07, NA, NA, NA, NA, NA, 4.39007042977353, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 109.21, NA, NA, NA, NA, NA, 7.36349530159109, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 108.86, NA, NA, NA, NA, NA, 6.819055899528, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 109.35, NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 109.83, NA, NA, NA, NA, NA, 5.43898412799223, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 109.31, NA, NA, NA, NA, NA, 5.0197022496059, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.15, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 109.81, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.12, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.26, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.58, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.94, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.85, NA, NA, NA, NA, NA, 4.17959723627904, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 109.54, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 108.97, NA, NA, NA, NA, NA, 3.89500195680568, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 109.38, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.01, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 109.97, NA, NA, NA, NA, NA, 4.78264770971619, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.77, NA, NA, NA, NA, NA, 6.43383681692251, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.89, NA, NA, NA, NA, NA, 5.35868258236974, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.02, NA, NA, NA, NA, NA, 5.36523237554459, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 109.79, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.24, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 110.24, NA, NA, NA, NA, NA, 5.1820268154181, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 110.1, NA, NA, NA, NA, NA, 5.64051978316379)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 110.19, NA, NA, NA, NA, NA, 5.40424303512427)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 110.06, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 109.79, NA, NA, NA, NA, NA, 5.31912252556105)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 109.99, NA, NA, NA, NA, NA, 5.10725403611976)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 109.8, NA, NA, NA, NA, NA, 4.88630826444634)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 109.24, NA, NA, NA, NA, NA, 4.54017206538726)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 109.93, NA, NA, NA, NA, NA, 4.26902801727263)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 109.88, NA, NA, NA, NA, NA, 7.15865374304285)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 109.26, NA, NA, NA, NA, NA, 6.62955811421574)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 109, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 110.28, NA, NA, NA, NA, NA, 5.28838049367564)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 110.22, NA, NA, NA, NA, NA, 4.88091511137599)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 110.13, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 5.92417061611, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 7.05218617772, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 7.54716981132, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 8.30564784053, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 8.89679715302, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 9.26784059314, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 9.44287063267, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 9.54198473282, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 10.0704934542, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 10.3519668737, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 9.5328884652, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 7.32600732601, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.83526999316, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.25390869293, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.08272506083, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.18429189858, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.16142945163, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 6.09384521633, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 5.58347292016, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 5.0994390617, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 5.20020800832, NA, NA, NA, NA, NA)</t>
+    <t>geacron/774</t>
+  </si>
+  <si>
+    <t>geacron/775</t>
+  </si>
+  <si>
+    <t>geacron/776</t>
+  </si>
+  <si>
+    <t>geacron/777</t>
+  </si>
+  <si>
+    <t>geacron/778</t>
+  </si>
+  <si>
+    <t>geacron/779</t>
+  </si>
+  <si>
+    <t>geacron/780</t>
+  </si>
+  <si>
+    <t>geacron/781</t>
+  </si>
+  <si>
+    <t>Ottoman</t>
+  </si>
+  <si>
+    <t>Exchange_Rates_UK-historical.xlsx</t>
+  </si>
+  <si>
+    <t>Labourers_Wage-historical.xlsx</t>
+  </si>
+  <si>
+    <t>Exchange Rates to UK Pound</t>
+  </si>
+  <si>
+    <t>Labourers Real Wage</t>
   </si>
   <si>
     <t>Borders Start Year</t>
@@ -1975,15 +1639,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Ottoman</t>
-  </si>
-  <si>
-    <t>Exchange Rates to UK Pound</t>
-  </si>
-  <si>
-    <t>Labourers Real Wage</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -2011,7 +1666,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/data/DataAtHistoricalBorders.xlsx</t>
+    <t>https://www.clio-infra.eu/data/Ottoman_1500_1945_all_data.xlsx</t>
   </si>
   <si>
     <t>Bosch, Reinoud and Koen van den Bos (2015). Exchange Rates to UK Pound. http://hdl.handle.net/10622/N6BLB8, accessed via the Clio Infra website.</t>
@@ -2020,22 +1675,22 @@
     <t>Zwart, Pim de, Bas van Leeuwen and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.bib</t>
   </si>
 </sst>
 </file>
@@ -3664,1585 +3319,577 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>774.0</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2" t="s">
+        <v>535</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="KT2"/>
+      <c r="KU2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2"/>
+      <c r="RA2"/>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>525</v>
       </c>
-      <c r="C2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H2" t="s">
-        <v>531</v>
-      </c>
-      <c r="I2" t="s">
-        <v>526</v>
-      </c>
-      <c r="J2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K2" t="s">
-        <v>526</v>
-      </c>
-      <c r="L2" t="s">
-        <v>526</v>
-      </c>
-      <c r="M2" t="s">
-        <v>526</v>
-      </c>
-      <c r="N2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O2" t="s">
-        <v>526</v>
-      </c>
-      <c r="P2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>526</v>
-      </c>
-      <c r="R2" t="s">
-        <v>526</v>
-      </c>
-      <c r="S2" t="s">
-        <v>526</v>
-      </c>
-      <c r="T2" t="s">
-        <v>526</v>
-      </c>
-      <c r="U2" t="s">
-        <v>526</v>
-      </c>
-      <c r="V2" t="s">
-        <v>526</v>
-      </c>
-      <c r="W2" t="s">
-        <v>526</v>
-      </c>
-      <c r="X2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="II2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>532</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KQ2" t="s">
+      <c r="B3" t="n">
+        <v>775.0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="G3" t="s">
         <v>533</v>
       </c>
-      <c r="KR2" t="s">
-        <v>534</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>534</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KU2" t="s">
+      <c r="H3" t="s">
         <v>535</v>
       </c>
-      <c r="KV2" t="s">
-        <v>536</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>537</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>538</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>539</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>540</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>539</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>541</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>542</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>543</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>544</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>545</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>542</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>546</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>546</v>
-      </c>
-      <c r="LP2" t="s">
-        <v>546</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>547</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>548</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>549</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>550</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>551</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>552</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>553</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>554</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>555</v>
-      </c>
-      <c r="MB2" t="s">
-        <v>556</v>
-      </c>
-      <c r="MC2" t="s">
-        <v>557</v>
-      </c>
-      <c r="MD2" t="s">
-        <v>558</v>
-      </c>
-      <c r="ME2" t="s">
-        <v>559</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>560</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>561</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>562</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>563</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>564</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>565</v>
-      </c>
-      <c r="ML2" t="s">
-        <v>566</v>
-      </c>
-      <c r="MM2" t="s">
-        <v>567</v>
-      </c>
-      <c r="MN2" t="s">
-        <v>568</v>
-      </c>
-      <c r="MO2" t="s">
-        <v>569</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>570</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>571</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>572</v>
-      </c>
-      <c r="MV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MX2" t="s">
-        <v>573</v>
-      </c>
-      <c r="MY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>574</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>575</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>576</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NF2" t="s">
-        <v>577</v>
-      </c>
-      <c r="NG2" t="s">
-        <v>578</v>
-      </c>
-      <c r="NH2" t="s">
-        <v>579</v>
-      </c>
-      <c r="NI2" t="s">
-        <v>580</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>581</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>582</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>583</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>584</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>585</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>586</v>
-      </c>
-      <c r="NR2" t="s">
-        <v>587</v>
-      </c>
-      <c r="NS2" t="s">
-        <v>588</v>
-      </c>
-      <c r="NT2" t="s">
-        <v>589</v>
-      </c>
-      <c r="NU2" t="s">
-        <v>590</v>
-      </c>
-      <c r="NV2" t="s">
-        <v>591</v>
-      </c>
-      <c r="NW2" t="s">
-        <v>592</v>
-      </c>
-      <c r="NX2" t="s">
-        <v>593</v>
-      </c>
-      <c r="NY2" t="s">
-        <v>594</v>
-      </c>
-      <c r="NZ2" t="s">
-        <v>595</v>
-      </c>
-      <c r="OA2" t="s">
-        <v>596</v>
-      </c>
-      <c r="OB2" t="s">
-        <v>597</v>
-      </c>
-      <c r="OC2" t="s">
-        <v>598</v>
-      </c>
-      <c r="OD2" t="s">
-        <v>599</v>
-      </c>
-      <c r="OE2" t="s">
-        <v>600</v>
-      </c>
-      <c r="OF2" t="s">
-        <v>601</v>
-      </c>
-      <c r="OG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="OH2" t="s">
-        <v>603</v>
-      </c>
-      <c r="OI2" t="s">
-        <v>604</v>
-      </c>
-      <c r="OJ2" t="s">
-        <v>605</v>
-      </c>
-      <c r="OK2" t="s">
-        <v>606</v>
-      </c>
-      <c r="OL2" t="s">
-        <v>607</v>
-      </c>
-      <c r="OM2" t="s">
-        <v>608</v>
-      </c>
-      <c r="ON2" t="s">
-        <v>609</v>
-      </c>
-      <c r="OO2" t="s">
-        <v>610</v>
-      </c>
-      <c r="OP2" t="s">
-        <v>611</v>
-      </c>
-      <c r="OQ2" t="s">
-        <v>612</v>
-      </c>
-      <c r="OR2" t="s">
-        <v>613</v>
-      </c>
-      <c r="OS2" t="s">
-        <v>614</v>
-      </c>
-      <c r="OT2" t="s">
-        <v>615</v>
-      </c>
-      <c r="OU2" t="s">
-        <v>616</v>
-      </c>
-      <c r="OV2" t="s">
-        <v>617</v>
-      </c>
-      <c r="OW2" t="s">
-        <v>618</v>
-      </c>
-      <c r="OX2" t="s">
-        <v>619</v>
-      </c>
-      <c r="OY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OZ2" t="s">
-        <v>620</v>
-      </c>
-      <c r="PA2" t="s">
-        <v>621</v>
-      </c>
-      <c r="PB2" t="s">
-        <v>622</v>
-      </c>
-      <c r="PC2" t="s">
-        <v>623</v>
-      </c>
-      <c r="PD2" t="s">
-        <v>624</v>
-      </c>
-      <c r="PE2" t="s">
-        <v>625</v>
-      </c>
-      <c r="PF2" t="s">
-        <v>626</v>
-      </c>
-      <c r="PG2" t="s">
-        <v>627</v>
-      </c>
-      <c r="PH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PN2" t="s">
-        <v>628</v>
-      </c>
-      <c r="PO2" t="s">
-        <v>629</v>
-      </c>
-      <c r="PP2" t="s">
-        <v>630</v>
-      </c>
-      <c r="PQ2" t="s">
-        <v>631</v>
-      </c>
-      <c r="PR2" t="s">
-        <v>632</v>
-      </c>
-      <c r="PS2" t="s">
-        <v>633</v>
-      </c>
-      <c r="PT2" t="s">
-        <v>634</v>
-      </c>
-      <c r="PU2" t="s">
-        <v>635</v>
-      </c>
-      <c r="PV2" t="s">
-        <v>636</v>
-      </c>
-      <c r="PW2" t="s">
-        <v>637</v>
-      </c>
-      <c r="PX2" t="s">
-        <v>638</v>
-      </c>
-      <c r="PY2" t="s">
-        <v>639</v>
-      </c>
-      <c r="PZ2" t="s">
-        <v>640</v>
-      </c>
-      <c r="QA2" t="s">
-        <v>641</v>
-      </c>
-      <c r="QB2" t="s">
-        <v>642</v>
-      </c>
-      <c r="QC2" t="s">
-        <v>643</v>
-      </c>
-      <c r="QD2" t="s">
-        <v>644</v>
-      </c>
-      <c r="QE2" t="s">
-        <v>645</v>
-      </c>
-      <c r="QF2" t="s">
-        <v>646</v>
-      </c>
-      <c r="QG2" t="s">
-        <v>647</v>
-      </c>
-      <c r="QH2" t="s">
-        <v>648</v>
-      </c>
-      <c r="QI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ST2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TD2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -5543,26 +4190,56 @@
       <c r="KT3"/>
       <c r="KU3"/>
       <c r="KV3"/>
-      <c r="KW3"/>
+      <c r="KW3" t="n">
+        <v>12.0</v>
+      </c>
       <c r="KX3"/>
-      <c r="KY3"/>
-      <c r="KZ3"/>
-      <c r="LA3"/>
-      <c r="LB3"/>
-      <c r="LC3"/>
-      <c r="LD3"/>
-      <c r="LE3"/>
-      <c r="LF3"/>
-      <c r="LG3"/>
+      <c r="KY3" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>19.6</v>
+      </c>
       <c r="LH3"/>
       <c r="LI3"/>
       <c r="LJ3"/>
-      <c r="LK3"/>
+      <c r="LK3" t="n">
+        <v>23.0</v>
+      </c>
       <c r="LL3"/>
-      <c r="LM3"/>
-      <c r="LN3"/>
-      <c r="LO3"/>
-      <c r="LP3"/>
+      <c r="LM3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>32.0</v>
+      </c>
       <c r="LQ3"/>
       <c r="LR3"/>
       <c r="LS3"/>
@@ -5761,14 +4438,28 @@
       <c r="TD3"/>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" t="n">
+        <v>776.0</v>
+      </c>
       <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="D4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H4" t="s">
+        <v>535</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -6089,26 +4780,60 @@
       <c r="LN4"/>
       <c r="LO4"/>
       <c r="LP4"/>
-      <c r="LQ4"/>
+      <c r="LQ4" t="n">
+        <v>32.0</v>
+      </c>
       <c r="LR4"/>
-      <c r="LS4"/>
+      <c r="LS4" t="n">
+        <v>40.0</v>
+      </c>
       <c r="LT4"/>
       <c r="LU4"/>
-      <c r="LV4"/>
-      <c r="LW4"/>
-      <c r="LX4"/>
-      <c r="LY4"/>
-      <c r="LZ4"/>
-      <c r="MA4"/>
-      <c r="MB4"/>
-      <c r="MC4"/>
-      <c r="MD4"/>
-      <c r="ME4"/>
-      <c r="MF4"/>
-      <c r="MG4"/>
-      <c r="MH4"/>
-      <c r="MI4"/>
-      <c r="MJ4"/>
+      <c r="LV4" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>58.15</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>60.55</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>81.28</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>88.95</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>95.93</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>99.45</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>100.44</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>104.03</v>
+      </c>
       <c r="MK4"/>
       <c r="ML4"/>
       <c r="MM4"/>
@@ -6287,14 +5012,28 @@
       <c r="TD4"/>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" t="n">
+        <v>777.0</v>
+      </c>
       <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="D5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H5" t="s">
+        <v>535</v>
+      </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -6635,22 +5374,40 @@
       <c r="MH5"/>
       <c r="MI5"/>
       <c r="MJ5"/>
-      <c r="MK5"/>
-      <c r="ML5"/>
-      <c r="MM5"/>
-      <c r="MN5"/>
-      <c r="MO5"/>
+      <c r="MK5" t="n">
+        <v>108.85</v>
+      </c>
+      <c r="ML5" t="n">
+        <v>111.05</v>
+      </c>
+      <c r="MM5" t="n">
+        <v>116.73</v>
+      </c>
+      <c r="MN5" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="MO5" t="n">
+        <v>109.03</v>
+      </c>
       <c r="MP5"/>
       <c r="MQ5"/>
       <c r="MR5"/>
       <c r="MS5"/>
-      <c r="MT5"/>
-      <c r="MU5"/>
+      <c r="MT5" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="MU5" t="n">
+        <v>110.75</v>
+      </c>
       <c r="MV5"/>
       <c r="MW5"/>
-      <c r="MX5"/>
+      <c r="MX5" t="n">
+        <v>117.5</v>
+      </c>
       <c r="MY5"/>
-      <c r="MZ5"/>
+      <c r="MZ5" t="n">
+        <v>115.5</v>
+      </c>
       <c r="NA5"/>
       <c r="NB5"/>
       <c r="NC5"/>
@@ -6813,14 +5570,28 @@
       <c r="TD5"/>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
+      <c r="A6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" t="n">
+        <v>778.0</v>
+      </c>
       <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="D6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>533</v>
+      </c>
+      <c r="H6" t="s">
+        <v>535</v>
+      </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -7183,24 +5954,52 @@
       <c r="ND6"/>
       <c r="NE6"/>
       <c r="NF6"/>
-      <c r="NG6"/>
-      <c r="NH6"/>
-      <c r="NI6"/>
+      <c r="NG6" t="n">
+        <v>124.88</v>
+      </c>
+      <c r="NH6" t="n">
+        <v>125.66</v>
+      </c>
+      <c r="NI6" t="n">
+        <v>128.5</v>
+      </c>
       <c r="NJ6"/>
       <c r="NK6"/>
       <c r="NL6"/>
-      <c r="NM6"/>
-      <c r="NN6"/>
-      <c r="NO6"/>
-      <c r="NP6"/>
+      <c r="NM6" t="n">
+        <v>108.79</v>
+      </c>
+      <c r="NN6" t="n">
+        <v>109.61</v>
+      </c>
+      <c r="NO6" t="n">
+        <v>110.13</v>
+      </c>
+      <c r="NP6" t="n">
+        <v>109.81</v>
+      </c>
       <c r="NQ6"/>
-      <c r="NR6"/>
-      <c r="NS6"/>
-      <c r="NT6"/>
-      <c r="NU6"/>
-      <c r="NV6"/>
-      <c r="NW6"/>
-      <c r="NX6"/>
+      <c r="NR6" t="n">
+        <v>110.37</v>
+      </c>
+      <c r="NS6" t="n">
+        <v>110.37</v>
+      </c>
+      <c r="NT6" t="n">
+        <v>110.74</v>
+      </c>
+      <c r="NU6" t="n">
+        <v>110.07</v>
+      </c>
+      <c r="NV6" t="n">
+        <v>109.21</v>
+      </c>
+      <c r="NW6" t="n">
+        <v>108.86</v>
+      </c>
+      <c r="NX6" t="n">
+        <v>109.35</v>
+      </c>
       <c r="NY6"/>
       <c r="NZ6"/>
       <c r="OA6"/>
@@ -7339,14 +6138,28 @@
       <c r="TD6"/>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
+      <c r="A7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" t="n">
+        <v>779.0</v>
+      </c>
       <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="D7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>533</v>
+      </c>
+      <c r="H7" t="s">
+        <v>535</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -7727,26 +6540,66 @@
       <c r="NV7"/>
       <c r="NW7"/>
       <c r="NX7"/>
-      <c r="NY7"/>
-      <c r="NZ7"/>
-      <c r="OA7"/>
-      <c r="OB7"/>
-      <c r="OC7"/>
-      <c r="OD7"/>
-      <c r="OE7"/>
-      <c r="OF7"/>
-      <c r="OG7"/>
-      <c r="OH7"/>
-      <c r="OI7"/>
-      <c r="OJ7"/>
-      <c r="OK7"/>
-      <c r="OL7"/>
-      <c r="OM7"/>
-      <c r="ON7"/>
-      <c r="OO7"/>
-      <c r="OP7"/>
-      <c r="OQ7"/>
-      <c r="OR7"/>
+      <c r="NY7" t="n">
+        <v>109.83</v>
+      </c>
+      <c r="NZ7" t="n">
+        <v>109.31</v>
+      </c>
+      <c r="OA7" t="n">
+        <v>110.15</v>
+      </c>
+      <c r="OB7" t="n">
+        <v>109.81</v>
+      </c>
+      <c r="OC7" t="n">
+        <v>110.12</v>
+      </c>
+      <c r="OD7" t="n">
+        <v>110.26</v>
+      </c>
+      <c r="OE7" t="n">
+        <v>110.58</v>
+      </c>
+      <c r="OF7" t="n">
+        <v>110.94</v>
+      </c>
+      <c r="OG7" t="n">
+        <v>110.85</v>
+      </c>
+      <c r="OH7" t="n">
+        <v>109.54</v>
+      </c>
+      <c r="OI7" t="n">
+        <v>108.97</v>
+      </c>
+      <c r="OJ7" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="OK7" t="n">
+        <v>110.01</v>
+      </c>
+      <c r="OL7" t="n">
+        <v>109.97</v>
+      </c>
+      <c r="OM7" t="n">
+        <v>110.77</v>
+      </c>
+      <c r="ON7" t="n">
+        <v>110.89</v>
+      </c>
+      <c r="OO7" t="n">
+        <v>110.02</v>
+      </c>
+      <c r="OP7" t="n">
+        <v>109.79</v>
+      </c>
+      <c r="OQ7" t="n">
+        <v>110.24</v>
+      </c>
+      <c r="OR7" t="n">
+        <v>110.24</v>
+      </c>
       <c r="OS7"/>
       <c r="OT7"/>
       <c r="OU7"/>
@@ -7865,14 +6718,28 @@
       <c r="TD7"/>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
+      <c r="A8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B8" t="n">
+        <v>780.0</v>
+      </c>
       <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="D8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H8" t="s">
+        <v>535</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -8273,21 +7140,49 @@
       <c r="OP8"/>
       <c r="OQ8"/>
       <c r="OR8"/>
-      <c r="OS8"/>
-      <c r="OT8"/>
-      <c r="OU8"/>
-      <c r="OV8"/>
-      <c r="OW8"/>
-      <c r="OX8"/>
+      <c r="OS8" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="OT8" t="n">
+        <v>110.19</v>
+      </c>
+      <c r="OU8" t="n">
+        <v>110.06</v>
+      </c>
+      <c r="OV8" t="n">
+        <v>109.79</v>
+      </c>
+      <c r="OW8" t="n">
+        <v>109.99</v>
+      </c>
+      <c r="OX8" t="n">
+        <v>109.8</v>
+      </c>
       <c r="OY8"/>
-      <c r="OZ8"/>
-      <c r="PA8"/>
-      <c r="PB8"/>
-      <c r="PC8"/>
-      <c r="PD8"/>
-      <c r="PE8"/>
-      <c r="PF8"/>
-      <c r="PG8"/>
+      <c r="OZ8" t="n">
+        <v>109.24</v>
+      </c>
+      <c r="PA8" t="n">
+        <v>109.93</v>
+      </c>
+      <c r="PB8" t="n">
+        <v>109.88</v>
+      </c>
+      <c r="PC8" t="n">
+        <v>109.26</v>
+      </c>
+      <c r="PD8" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="PE8" t="n">
+        <v>110.28</v>
+      </c>
+      <c r="PF8" t="n">
+        <v>110.22</v>
+      </c>
+      <c r="PG8" t="n">
+        <v>110.13</v>
+      </c>
       <c r="PH8"/>
       <c r="PI8"/>
       <c r="PJ8"/>
@@ -8391,14 +7286,28 @@
       <c r="TD8"/>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
+      <c r="A9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" t="n">
+        <v>781.0</v>
+      </c>
       <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
+      <c r="D9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>533</v>
+      </c>
+      <c r="H9" t="s">
+        <v>535</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -8820,27 +7729,69 @@
       <c r="PK9"/>
       <c r="PL9"/>
       <c r="PM9"/>
-      <c r="PN9"/>
-      <c r="PO9"/>
-      <c r="PP9"/>
-      <c r="PQ9"/>
-      <c r="PR9"/>
-      <c r="PS9"/>
-      <c r="PT9"/>
-      <c r="PU9"/>
-      <c r="PV9"/>
-      <c r="PW9"/>
-      <c r="PX9"/>
-      <c r="PY9"/>
-      <c r="PZ9"/>
-      <c r="QA9"/>
-      <c r="QB9"/>
-      <c r="QC9"/>
-      <c r="QD9"/>
-      <c r="QE9"/>
-      <c r="QF9"/>
-      <c r="QG9"/>
-      <c r="QH9"/>
+      <c r="PN9" t="n">
+        <v>5.924171</v>
+      </c>
+      <c r="PO9" t="n">
+        <v>7.052186</v>
+      </c>
+      <c r="PP9" t="n">
+        <v>7.54717</v>
+      </c>
+      <c r="PQ9" t="n">
+        <v>8.305648</v>
+      </c>
+      <c r="PR9" t="n">
+        <v>8.896797</v>
+      </c>
+      <c r="PS9" t="n">
+        <v>9.267841</v>
+      </c>
+      <c r="PT9" t="n">
+        <v>9.442871</v>
+      </c>
+      <c r="PU9" t="n">
+        <v>9.541985</v>
+      </c>
+      <c r="PV9" t="n">
+        <v>10.07049</v>
+      </c>
+      <c r="PW9" t="n">
+        <v>10.35197</v>
+      </c>
+      <c r="PX9" t="n">
+        <v>9.532888</v>
+      </c>
+      <c r="PY9" t="n">
+        <v>7.326007</v>
+      </c>
+      <c r="PZ9" t="n">
+        <v>6.83527</v>
+      </c>
+      <c r="QA9" t="n">
+        <v>6.253909</v>
+      </c>
+      <c r="QB9" t="n">
+        <v>6.082725</v>
+      </c>
+      <c r="QC9" t="n">
+        <v>6.184292</v>
+      </c>
+      <c r="QD9" t="n">
+        <v>6.161429</v>
+      </c>
+      <c r="QE9" t="n">
+        <v>6.093845</v>
+      </c>
+      <c r="QF9" t="n">
+        <v>5.583473</v>
+      </c>
+      <c r="QG9" t="n">
+        <v>5.099439</v>
+      </c>
+      <c r="QH9" t="n">
+        <v>5.200208</v>
+      </c>
       <c r="QI9"/>
       <c r="QJ9"/>
       <c r="QK9"/>
@@ -8917,14 +7868,28 @@
       <c r="TD9"/>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
+      <c r="A10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" t="n">
+        <v>776.0</v>
+      </c>
       <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+      <c r="D10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>534</v>
+      </c>
+      <c r="H10" t="s">
+        <v>536</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -9245,8 +8210,12 @@
       <c r="LN10"/>
       <c r="LO10"/>
       <c r="LP10"/>
-      <c r="LQ10"/>
-      <c r="LR10"/>
+      <c r="LQ10" t="n">
+        <v>7.361996</v>
+      </c>
+      <c r="LR10" t="n">
+        <v>6.667333</v>
+      </c>
       <c r="LS10"/>
       <c r="LT10"/>
       <c r="LU10"/>
@@ -9255,14 +8224,24 @@
       <c r="LX10"/>
       <c r="LY10"/>
       <c r="LZ10"/>
-      <c r="MA10"/>
-      <c r="MB10"/>
-      <c r="MC10"/>
+      <c r="MA10" t="n">
+        <v>4.011275</v>
+      </c>
+      <c r="MB10" t="n">
+        <v>4.169704</v>
+      </c>
+      <c r="MC10" t="n">
+        <v>4.672</v>
+      </c>
       <c r="MD10"/>
       <c r="ME10"/>
-      <c r="MF10"/>
+      <c r="MF10" t="n">
+        <v>4.004274</v>
+      </c>
       <c r="MG10"/>
-      <c r="MH10"/>
+      <c r="MH10" t="n">
+        <v>3.872468</v>
+      </c>
       <c r="MI10"/>
       <c r="MJ10"/>
       <c r="MK10"/>
@@ -9443,14 +8422,28 @@
       <c r="TD10"/>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
+      <c r="A11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" t="n">
+        <v>777.0</v>
+      </c>
       <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+      <c r="D11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>534</v>
+      </c>
+      <c r="H11" t="s">
+        <v>536</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -9793,12 +8786,16 @@
       <c r="MJ11"/>
       <c r="MK11"/>
       <c r="ML11"/>
-      <c r="MM11"/>
+      <c r="MM11" t="n">
+        <v>3.847404</v>
+      </c>
       <c r="MN11"/>
       <c r="MO11"/>
       <c r="MP11"/>
       <c r="MQ11"/>
-      <c r="MR11"/>
+      <c r="MR11" t="n">
+        <v>4.246008</v>
+      </c>
       <c r="MS11"/>
       <c r="MT11"/>
       <c r="MU11"/>
@@ -9807,9 +8804,13 @@
       <c r="MX11"/>
       <c r="MY11"/>
       <c r="MZ11"/>
-      <c r="NA11"/>
+      <c r="NA11" t="n">
+        <v>4.298046</v>
+      </c>
       <c r="NB11"/>
-      <c r="NC11"/>
+      <c r="NC11" t="n">
+        <v>4.005198</v>
+      </c>
       <c r="ND11"/>
       <c r="NE11"/>
       <c r="NF11"/>
@@ -9969,14 +8970,28 @@
       <c r="TD11"/>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="A12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B12" t="n">
+        <v>778.0</v>
+      </c>
       <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
+      <c r="D12" t="s">
+        <v>532</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>534</v>
+      </c>
+      <c r="H12" t="s">
+        <v>536</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -10338,24 +9353,52 @@
       <c r="NC12"/>
       <c r="ND12"/>
       <c r="NE12"/>
-      <c r="NF12"/>
-      <c r="NG12"/>
-      <c r="NH12"/>
-      <c r="NI12"/>
+      <c r="NF12" t="n">
+        <v>4.918585</v>
+      </c>
+      <c r="NG12" t="n">
+        <v>6.617659</v>
+      </c>
+      <c r="NH12" t="n">
+        <v>5.511325</v>
+      </c>
+      <c r="NI12" t="n">
+        <v>5.518065</v>
+      </c>
       <c r="NJ12"/>
       <c r="NK12"/>
-      <c r="NL12"/>
-      <c r="NM12"/>
-      <c r="NN12"/>
+      <c r="NL12" t="n">
+        <v>5.329546</v>
+      </c>
+      <c r="NM12" t="n">
+        <v>5.801335</v>
+      </c>
+      <c r="NN12" t="n">
+        <v>5.558207</v>
+      </c>
       <c r="NO12"/>
-      <c r="NP12"/>
-      <c r="NQ12"/>
-      <c r="NR12"/>
+      <c r="NP12" t="n">
+        <v>5.470618</v>
+      </c>
+      <c r="NQ12" t="n">
+        <v>5.252605</v>
+      </c>
+      <c r="NR12" t="n">
+        <v>5.025252</v>
+      </c>
       <c r="NS12"/>
-      <c r="NT12"/>
-      <c r="NU12"/>
-      <c r="NV12"/>
-      <c r="NW12"/>
+      <c r="NT12" t="n">
+        <v>4.669078</v>
+      </c>
+      <c r="NU12" t="n">
+        <v>4.39007</v>
+      </c>
+      <c r="NV12" t="n">
+        <v>7.363495</v>
+      </c>
+      <c r="NW12" t="n">
+        <v>6.819056</v>
+      </c>
       <c r="NX12"/>
       <c r="NY12"/>
       <c r="NZ12"/>
@@ -10495,14 +9538,28 @@
       <c r="TD12"/>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
+      <c r="A13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B13" t="n">
+        <v>779.0</v>
+      </c>
       <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
+      <c r="D13" t="s">
+        <v>532</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H13" t="s">
+        <v>536</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -10883,26 +9940,44 @@
       <c r="NV13"/>
       <c r="NW13"/>
       <c r="NX13"/>
-      <c r="NY13"/>
-      <c r="NZ13"/>
+      <c r="NY13" t="n">
+        <v>5.438984</v>
+      </c>
+      <c r="NZ13" t="n">
+        <v>5.019702</v>
+      </c>
       <c r="OA13"/>
       <c r="OB13"/>
       <c r="OC13"/>
       <c r="OD13"/>
       <c r="OE13"/>
       <c r="OF13"/>
-      <c r="OG13"/>
+      <c r="OG13" t="n">
+        <v>4.179597</v>
+      </c>
       <c r="OH13"/>
-      <c r="OI13"/>
+      <c r="OI13" t="n">
+        <v>3.895002</v>
+      </c>
       <c r="OJ13"/>
       <c r="OK13"/>
-      <c r="OL13"/>
-      <c r="OM13"/>
-      <c r="ON13"/>
-      <c r="OO13"/>
+      <c r="OL13" t="n">
+        <v>4.782648</v>
+      </c>
+      <c r="OM13" t="n">
+        <v>6.433837</v>
+      </c>
+      <c r="ON13" t="n">
+        <v>5.358683</v>
+      </c>
+      <c r="OO13" t="n">
+        <v>5.365232</v>
+      </c>
       <c r="OP13"/>
       <c r="OQ13"/>
-      <c r="OR13"/>
+      <c r="OR13" t="n">
+        <v>5.182027</v>
+      </c>
       <c r="OS13"/>
       <c r="OT13"/>
       <c r="OU13"/>
@@ -11021,14 +10096,28 @@
       <c r="TD13"/>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="A14" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14" t="n">
+        <v>780.0</v>
+      </c>
       <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="D14" t="s">
+        <v>532</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>534</v>
+      </c>
+      <c r="H14" t="s">
+        <v>536</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -11429,20 +10518,42 @@
       <c r="OP14"/>
       <c r="OQ14"/>
       <c r="OR14"/>
-      <c r="OS14"/>
-      <c r="OT14"/>
+      <c r="OS14" t="n">
+        <v>5.64052</v>
+      </c>
+      <c r="OT14" t="n">
+        <v>5.404243</v>
+      </c>
       <c r="OU14"/>
-      <c r="OV14"/>
-      <c r="OW14"/>
-      <c r="OX14"/>
+      <c r="OV14" t="n">
+        <v>5.319123</v>
+      </c>
+      <c r="OW14" t="n">
+        <v>5.107254</v>
+      </c>
+      <c r="OX14" t="n">
+        <v>4.886308</v>
+      </c>
       <c r="OY14"/>
-      <c r="OZ14"/>
-      <c r="PA14"/>
-      <c r="PB14"/>
-      <c r="PC14"/>
+      <c r="OZ14" t="n">
+        <v>4.540172</v>
+      </c>
+      <c r="PA14" t="n">
+        <v>4.269028</v>
+      </c>
+      <c r="PB14" t="n">
+        <v>7.158654</v>
+      </c>
+      <c r="PC14" t="n">
+        <v>6.629558</v>
+      </c>
       <c r="PD14"/>
-      <c r="PE14"/>
-      <c r="PF14"/>
+      <c r="PE14" t="n">
+        <v>5.28838</v>
+      </c>
+      <c r="PF14" t="n">
+        <v>4.880915</v>
+      </c>
       <c r="PG14"/>
       <c r="PH14"/>
       <c r="PI14"/>
@@ -11564,24 +10675,24 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>649</v>
+        <v>537</v>
       </c>
       <c r="C1" t="s">
-        <v>650</v>
+        <v>538</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>651</v>
+        <v>539</v>
       </c>
       <c r="F1" t="s">
-        <v>652</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B2" t="n">
         <v>1780.0</v>
@@ -11590,7 +10701,7 @@
         <v>1799.0</v>
       </c>
       <c r="D2" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E2" t="n">
         <v>1790.0</v>
@@ -11601,7 +10712,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B3" t="n">
         <v>1780.0</v>
@@ -11610,7 +10721,7 @@
         <v>1799.0</v>
       </c>
       <c r="D3" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E3" t="n">
         <v>1794.0</v>
@@ -11621,7 +10732,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B4" t="n">
         <v>1780.0</v>
@@ -11630,7 +10741,7 @@
         <v>1799.0</v>
       </c>
       <c r="D4" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E4" t="n">
         <v>1795.0</v>
@@ -11641,7 +10752,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B5" t="n">
         <v>1780.0</v>
@@ -11650,7 +10761,7 @@
         <v>1799.0</v>
       </c>
       <c r="D5" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
         <v>1796.0</v>
@@ -11661,7 +10772,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B6" t="n">
         <v>1780.0</v>
@@ -11670,7 +10781,7 @@
         <v>1799.0</v>
       </c>
       <c r="D6" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E6" t="n">
         <v>1798.0</v>
@@ -11681,7 +10792,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B7" t="n">
         <v>1780.0</v>
@@ -11690,7 +10801,7 @@
         <v>1799.0</v>
       </c>
       <c r="D7" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E7" t="n">
         <v>1799.0</v>
@@ -11701,7 +10812,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B8" t="n">
         <v>1800.0</v>
@@ -11710,7 +10821,7 @@
         <v>1819.0</v>
       </c>
       <c r="D8" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E8" t="n">
         <v>1800.0</v>
@@ -11721,7 +10832,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B9" t="n">
         <v>1800.0</v>
@@ -11730,7 +10841,7 @@
         <v>1819.0</v>
       </c>
       <c r="D9" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E9" t="n">
         <v>1802.0</v>
@@ -11741,7 +10852,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B10" t="n">
         <v>1800.0</v>
@@ -11750,7 +10861,7 @@
         <v>1819.0</v>
       </c>
       <c r="D10" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E10" t="n">
         <v>1803.0</v>
@@ -11761,7 +10872,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B11" t="n">
         <v>1800.0</v>
@@ -11770,7 +10881,7 @@
         <v>1819.0</v>
       </c>
       <c r="D11" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E11" t="n">
         <v>1804.0</v>
@@ -11781,7 +10892,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B12" t="n">
         <v>1800.0</v>
@@ -11790,7 +10901,7 @@
         <v>1819.0</v>
       </c>
       <c r="D12" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E12" t="n">
         <v>1805.0</v>
@@ -11801,7 +10912,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B13" t="n">
         <v>1800.0</v>
@@ -11810,7 +10921,7 @@
         <v>1819.0</v>
       </c>
       <c r="D13" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E13" t="n">
         <v>1806.0</v>
@@ -11821,7 +10932,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B14" t="n">
         <v>1800.0</v>
@@ -11830,7 +10941,7 @@
         <v>1819.0</v>
       </c>
       <c r="D14" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E14" t="n">
         <v>1807.0</v>
@@ -11841,7 +10952,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B15" t="n">
         <v>1800.0</v>
@@ -11850,7 +10961,7 @@
         <v>1819.0</v>
       </c>
       <c r="D15" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E15" t="n">
         <v>1808.0</v>
@@ -11861,7 +10972,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B16" t="n">
         <v>1800.0</v>
@@ -11870,7 +10981,7 @@
         <v>1819.0</v>
       </c>
       <c r="D16" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E16" t="n">
         <v>1809.0</v>
@@ -11881,7 +10992,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B17" t="n">
         <v>1800.0</v>
@@ -11890,7 +11001,7 @@
         <v>1819.0</v>
       </c>
       <c r="D17" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E17" t="n">
         <v>1810.0</v>
@@ -11901,7 +11012,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B18" t="n">
         <v>1800.0</v>
@@ -11910,7 +11021,7 @@
         <v>1819.0</v>
       </c>
       <c r="D18" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E18" t="n">
         <v>1814.0</v>
@@ -11921,7 +11032,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B19" t="n">
         <v>1800.0</v>
@@ -11930,7 +11041,7 @@
         <v>1819.0</v>
       </c>
       <c r="D19" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E19" t="n">
         <v>1816.0</v>
@@ -11941,7 +11052,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B20" t="n">
         <v>1800.0</v>
@@ -11950,7 +11061,7 @@
         <v>1819.0</v>
       </c>
       <c r="D20" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E20" t="n">
         <v>1817.0</v>
@@ -11961,7 +11072,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B21" t="n">
         <v>1800.0</v>
@@ -11970,7 +11081,7 @@
         <v>1819.0</v>
       </c>
       <c r="D21" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E21" t="n">
         <v>1818.0</v>
@@ -11981,7 +11092,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B22" t="n">
         <v>1800.0</v>
@@ -11990,7 +11101,7 @@
         <v>1819.0</v>
       </c>
       <c r="D22" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E22" t="n">
         <v>1819.0</v>
@@ -12001,7 +11112,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B23" t="n">
         <v>1820.0</v>
@@ -12010,7 +11121,7 @@
         <v>1839.0</v>
       </c>
       <c r="D23" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E23" t="n">
         <v>1820.0</v>
@@ -12021,7 +11132,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B24" t="n">
         <v>1820.0</v>
@@ -12030,7 +11141,7 @@
         <v>1839.0</v>
       </c>
       <c r="D24" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E24" t="n">
         <v>1820.0</v>
@@ -12041,7 +11152,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B25" t="n">
         <v>1820.0</v>
@@ -12050,7 +11161,7 @@
         <v>1839.0</v>
       </c>
       <c r="D25" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E25" t="n">
         <v>1821.0</v>
@@ -12061,7 +11172,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B26" t="n">
         <v>1820.0</v>
@@ -12070,7 +11181,7 @@
         <v>1839.0</v>
       </c>
       <c r="D26" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E26" t="n">
         <v>1822.0</v>
@@ -12081,7 +11192,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B27" t="n">
         <v>1820.0</v>
@@ -12090,7 +11201,7 @@
         <v>1839.0</v>
       </c>
       <c r="D27" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E27" t="n">
         <v>1825.0</v>
@@ -12101,7 +11212,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B28" t="n">
         <v>1820.0</v>
@@ -12110,7 +11221,7 @@
         <v>1839.0</v>
       </c>
       <c r="D28" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E28" t="n">
         <v>1826.0</v>
@@ -12121,7 +11232,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B29" t="n">
         <v>1820.0</v>
@@ -12130,7 +11241,7 @@
         <v>1839.0</v>
       </c>
       <c r="D29" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E29" t="n">
         <v>1827.0</v>
@@ -12141,7 +11252,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B30" t="n">
         <v>1820.0</v>
@@ -12150,7 +11261,7 @@
         <v>1839.0</v>
       </c>
       <c r="D30" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E30" t="n">
         <v>1828.0</v>
@@ -12161,7 +11272,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B31" t="n">
         <v>1820.0</v>
@@ -12170,7 +11281,7 @@
         <v>1839.0</v>
       </c>
       <c r="D31" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E31" t="n">
         <v>1829.0</v>
@@ -12181,7 +11292,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B32" t="n">
         <v>1820.0</v>
@@ -12190,7 +11301,7 @@
         <v>1839.0</v>
       </c>
       <c r="D32" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E32" t="n">
         <v>1830.0</v>
@@ -12201,7 +11312,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B33" t="n">
         <v>1820.0</v>
@@ -12210,7 +11321,7 @@
         <v>1839.0</v>
       </c>
       <c r="D33" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E33" t="n">
         <v>1830.0</v>
@@ -12221,7 +11332,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B34" t="n">
         <v>1820.0</v>
@@ -12230,7 +11341,7 @@
         <v>1839.0</v>
       </c>
       <c r="D34" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E34" t="n">
         <v>1831.0</v>
@@ -12241,7 +11352,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B35" t="n">
         <v>1820.0</v>
@@ -12250,7 +11361,7 @@
         <v>1839.0</v>
       </c>
       <c r="D35" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E35" t="n">
         <v>1831.0</v>
@@ -12261,7 +11372,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B36" t="n">
         <v>1820.0</v>
@@ -12270,7 +11381,7 @@
         <v>1839.0</v>
       </c>
       <c r="D36" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E36" t="n">
         <v>1832.0</v>
@@ -12281,7 +11392,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B37" t="n">
         <v>1820.0</v>
@@ -12290,7 +11401,7 @@
         <v>1839.0</v>
       </c>
       <c r="D37" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E37" t="n">
         <v>1832.0</v>
@@ -12301,7 +11412,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B38" t="n">
         <v>1820.0</v>
@@ -12310,7 +11421,7 @@
         <v>1839.0</v>
       </c>
       <c r="D38" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E38" t="n">
         <v>1833.0</v>
@@ -12321,7 +11432,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B39" t="n">
         <v>1820.0</v>
@@ -12330,7 +11441,7 @@
         <v>1839.0</v>
       </c>
       <c r="D39" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E39" t="n">
         <v>1834.0</v>
@@ -12341,7 +11452,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B40" t="n">
         <v>1820.0</v>
@@ -12350,7 +11461,7 @@
         <v>1839.0</v>
       </c>
       <c r="D40" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E40" t="n">
         <v>1835.0</v>
@@ -12361,7 +11472,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B41" t="n">
         <v>1820.0</v>
@@ -12370,7 +11481,7 @@
         <v>1839.0</v>
       </c>
       <c r="D41" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E41" t="n">
         <v>1835.0</v>
@@ -12381,7 +11492,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B42" t="n">
         <v>1820.0</v>
@@ -12390,7 +11501,7 @@
         <v>1839.0</v>
       </c>
       <c r="D42" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E42" t="n">
         <v>1836.0</v>
@@ -12401,7 +11512,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B43" t="n">
         <v>1820.0</v>
@@ -12410,7 +11521,7 @@
         <v>1839.0</v>
       </c>
       <c r="D43" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E43" t="n">
         <v>1837.0</v>
@@ -12421,7 +11532,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B44" t="n">
         <v>1820.0</v>
@@ -12430,7 +11541,7 @@
         <v>1839.0</v>
       </c>
       <c r="D44" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E44" t="n">
         <v>1837.0</v>
@@ -12441,7 +11552,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B45" t="n">
         <v>1820.0</v>
@@ -12450,7 +11561,7 @@
         <v>1839.0</v>
       </c>
       <c r="D45" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E45" t="n">
         <v>1838.0</v>
@@ -12461,7 +11572,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B46" t="n">
         <v>1820.0</v>
@@ -12470,7 +11581,7 @@
         <v>1839.0</v>
       </c>
       <c r="D46" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E46" t="n">
         <v>1839.0</v>
@@ -12481,7 +11592,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B47" t="n">
         <v>1840.0</v>
@@ -12490,7 +11601,7 @@
         <v>1859.0</v>
       </c>
       <c r="D47" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E47" t="n">
         <v>1840.0</v>
@@ -12501,7 +11612,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B48" t="n">
         <v>1840.0</v>
@@ -12510,7 +11621,7 @@
         <v>1859.0</v>
       </c>
       <c r="D48" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E48" t="n">
         <v>1841.0</v>
@@ -12521,7 +11632,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B49" t="n">
         <v>1840.0</v>
@@ -12530,7 +11641,7 @@
         <v>1859.0</v>
       </c>
       <c r="D49" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E49" t="n">
         <v>1842.0</v>
@@ -12541,7 +11652,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B50" t="n">
         <v>1840.0</v>
@@ -12550,7 +11661,7 @@
         <v>1859.0</v>
       </c>
       <c r="D50" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E50" t="n">
         <v>1842.0</v>
@@ -12561,7 +11672,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B51" t="n">
         <v>1840.0</v>
@@ -12570,7 +11681,7 @@
         <v>1859.0</v>
       </c>
       <c r="D51" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E51" t="n">
         <v>1843.0</v>
@@ -12581,7 +11692,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B52" t="n">
         <v>1840.0</v>
@@ -12590,7 +11701,7 @@
         <v>1859.0</v>
       </c>
       <c r="D52" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E52" t="n">
         <v>1844.0</v>
@@ -12601,7 +11712,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B53" t="n">
         <v>1840.0</v>
@@ -12610,7 +11721,7 @@
         <v>1859.0</v>
       </c>
       <c r="D53" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E53" t="n">
         <v>1847.0</v>
@@ -12621,7 +11732,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B54" t="n">
         <v>1840.0</v>
@@ -12630,7 +11741,7 @@
         <v>1859.0</v>
       </c>
       <c r="D54" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E54" t="n">
         <v>1849.0</v>
@@ -12641,7 +11752,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B55" t="n">
         <v>1840.0</v>
@@ -12650,7 +11761,7 @@
         <v>1859.0</v>
       </c>
       <c r="D55" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E55" t="n">
         <v>1850.0</v>
@@ -12661,7 +11772,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B56" t="n">
         <v>1840.0</v>
@@ -12670,7 +11781,7 @@
         <v>1859.0</v>
       </c>
       <c r="D56" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E56" t="n">
         <v>1853.0</v>
@@ -12681,7 +11792,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B57" t="n">
         <v>1840.0</v>
@@ -12690,7 +11801,7 @@
         <v>1859.0</v>
       </c>
       <c r="D57" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E57" t="n">
         <v>1855.0</v>
@@ -12701,7 +11812,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B58" t="n">
         <v>1840.0</v>
@@ -12710,7 +11821,7 @@
         <v>1859.0</v>
       </c>
       <c r="D58" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E58" t="n">
         <v>1856.0</v>
@@ -12721,7 +11832,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B59" t="n">
         <v>1840.0</v>
@@ -12730,7 +11841,7 @@
         <v>1859.0</v>
       </c>
       <c r="D59" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E59" t="n">
         <v>1858.0</v>
@@ -12741,7 +11852,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B60" t="n">
         <v>1860.0</v>
@@ -12750,7 +11861,7 @@
         <v>1879.0</v>
       </c>
       <c r="D60" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E60" t="n">
         <v>1861.0</v>
@@ -12761,7 +11872,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B61" t="n">
         <v>1860.0</v>
@@ -12770,7 +11881,7 @@
         <v>1879.0</v>
       </c>
       <c r="D61" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E61" t="n">
         <v>1862.0</v>
@@ -12781,7 +11892,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B62" t="n">
         <v>1860.0</v>
@@ -12790,7 +11901,7 @@
         <v>1879.0</v>
       </c>
       <c r="D62" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E62" t="n">
         <v>1862.0</v>
@@ -12801,7 +11912,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B63" t="n">
         <v>1860.0</v>
@@ -12810,7 +11921,7 @@
         <v>1879.0</v>
       </c>
       <c r="D63" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E63" t="n">
         <v>1863.0</v>
@@ -12821,7 +11932,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B64" t="n">
         <v>1860.0</v>
@@ -12830,7 +11941,7 @@
         <v>1879.0</v>
       </c>
       <c r="D64" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E64" t="n">
         <v>1863.0</v>
@@ -12841,7 +11952,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B65" t="n">
         <v>1860.0</v>
@@ -12850,7 +11961,7 @@
         <v>1879.0</v>
       </c>
       <c r="D65" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E65" t="n">
         <v>1864.0</v>
@@ -12861,7 +11972,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B66" t="n">
         <v>1860.0</v>
@@ -12870,7 +11981,7 @@
         <v>1879.0</v>
       </c>
       <c r="D66" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E66" t="n">
         <v>1864.0</v>
@@ -12881,7 +11992,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B67" t="n">
         <v>1860.0</v>
@@ -12890,7 +12001,7 @@
         <v>1879.0</v>
       </c>
       <c r="D67" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E67" t="n">
         <v>1867.0</v>
@@ -12901,7 +12012,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B68" t="n">
         <v>1860.0</v>
@@ -12910,7 +12021,7 @@
         <v>1879.0</v>
       </c>
       <c r="D68" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E68" t="n">
         <v>1868.0</v>
@@ -12921,7 +12032,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B69" t="n">
         <v>1860.0</v>
@@ -12930,7 +12041,7 @@
         <v>1879.0</v>
       </c>
       <c r="D69" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E69" t="n">
         <v>1868.0</v>
@@ -12941,7 +12052,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B70" t="n">
         <v>1860.0</v>
@@ -12950,7 +12061,7 @@
         <v>1879.0</v>
       </c>
       <c r="D70" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E70" t="n">
         <v>1869.0</v>
@@ -12961,7 +12072,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B71" t="n">
         <v>1860.0</v>
@@ -12970,7 +12081,7 @@
         <v>1879.0</v>
       </c>
       <c r="D71" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E71" t="n">
         <v>1869.0</v>
@@ -12981,7 +12092,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B72" t="n">
         <v>1860.0</v>
@@ -12990,7 +12101,7 @@
         <v>1879.0</v>
       </c>
       <c r="D72" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E72" t="n">
         <v>1870.0</v>
@@ -13001,7 +12112,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B73" t="n">
         <v>1860.0</v>
@@ -13010,7 +12121,7 @@
         <v>1879.0</v>
       </c>
       <c r="D73" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E73" t="n">
         <v>1871.0</v>
@@ -13021,7 +12132,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B74" t="n">
         <v>1860.0</v>
@@ -13030,7 +12141,7 @@
         <v>1879.0</v>
       </c>
       <c r="D74" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E74" t="n">
         <v>1871.0</v>
@@ -13041,7 +12152,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B75" t="n">
         <v>1860.0</v>
@@ -13050,7 +12161,7 @@
         <v>1879.0</v>
       </c>
       <c r="D75" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E75" t="n">
         <v>1872.0</v>
@@ -13061,7 +12172,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B76" t="n">
         <v>1860.0</v>
@@ -13070,7 +12181,7 @@
         <v>1879.0</v>
       </c>
       <c r="D76" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E76" t="n">
         <v>1873.0</v>
@@ -13081,7 +12192,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B77" t="n">
         <v>1860.0</v>
@@ -13090,7 +12201,7 @@
         <v>1879.0</v>
       </c>
       <c r="D77" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E77" t="n">
         <v>1873.0</v>
@@ -13101,7 +12212,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B78" t="n">
         <v>1860.0</v>
@@ -13110,7 +12221,7 @@
         <v>1879.0</v>
       </c>
       <c r="D78" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E78" t="n">
         <v>1874.0</v>
@@ -13121,7 +12232,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B79" t="n">
         <v>1860.0</v>
@@ -13130,7 +12241,7 @@
         <v>1879.0</v>
       </c>
       <c r="D79" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E79" t="n">
         <v>1875.0</v>
@@ -13141,7 +12252,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B80" t="n">
         <v>1860.0</v>
@@ -13150,7 +12261,7 @@
         <v>1879.0</v>
       </c>
       <c r="D80" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E80" t="n">
         <v>1875.0</v>
@@ -13161,7 +12272,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B81" t="n">
         <v>1860.0</v>
@@ -13170,7 +12281,7 @@
         <v>1879.0</v>
       </c>
       <c r="D81" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E81" t="n">
         <v>1876.0</v>
@@ -13181,7 +12292,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B82" t="n">
         <v>1860.0</v>
@@ -13190,7 +12301,7 @@
         <v>1879.0</v>
       </c>
       <c r="D82" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E82" t="n">
         <v>1876.0</v>
@@ -13201,7 +12312,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B83" t="n">
         <v>1860.0</v>
@@ -13210,7 +12321,7 @@
         <v>1879.0</v>
       </c>
       <c r="D83" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E83" t="n">
         <v>1877.0</v>
@@ -13221,7 +12332,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B84" t="n">
         <v>1860.0</v>
@@ -13230,7 +12341,7 @@
         <v>1879.0</v>
       </c>
       <c r="D84" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E84" t="n">
         <v>1877.0</v>
@@ -13241,7 +12352,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B85" t="n">
         <v>1860.0</v>
@@ -13250,7 +12361,7 @@
         <v>1879.0</v>
       </c>
       <c r="D85" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E85" t="n">
         <v>1878.0</v>
@@ -13261,7 +12372,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B86" t="n">
         <v>1860.0</v>
@@ -13270,7 +12381,7 @@
         <v>1879.0</v>
       </c>
       <c r="D86" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E86" t="n">
         <v>1878.0</v>
@@ -13281,7 +12392,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B87" t="n">
         <v>1860.0</v>
@@ -13290,7 +12401,7 @@
         <v>1879.0</v>
       </c>
       <c r="D87" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E87" t="n">
         <v>1879.0</v>
@@ -13301,7 +12412,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B88" t="n">
         <v>1880.0</v>
@@ -13310,7 +12421,7 @@
         <v>1899.0</v>
       </c>
       <c r="D88" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E88" t="n">
         <v>1880.0</v>
@@ -13321,7 +12432,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B89" t="n">
         <v>1880.0</v>
@@ -13330,7 +12441,7 @@
         <v>1899.0</v>
       </c>
       <c r="D89" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E89" t="n">
         <v>1880.0</v>
@@ -13341,7 +12452,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B90" t="n">
         <v>1880.0</v>
@@ -13350,7 +12461,7 @@
         <v>1899.0</v>
       </c>
       <c r="D90" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E90" t="n">
         <v>1881.0</v>
@@ -13361,7 +12472,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B91" t="n">
         <v>1880.0</v>
@@ -13370,7 +12481,7 @@
         <v>1899.0</v>
       </c>
       <c r="D91" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E91" t="n">
         <v>1881.0</v>
@@ -13381,7 +12492,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B92" t="n">
         <v>1880.0</v>
@@ -13390,7 +12501,7 @@
         <v>1899.0</v>
       </c>
       <c r="D92" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E92" t="n">
         <v>1882.0</v>
@@ -13401,7 +12512,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B93" t="n">
         <v>1880.0</v>
@@ -13410,7 +12521,7 @@
         <v>1899.0</v>
       </c>
       <c r="D93" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E93" t="n">
         <v>1883.0</v>
@@ -13421,7 +12532,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B94" t="n">
         <v>1880.0</v>
@@ -13430,7 +12541,7 @@
         <v>1899.0</v>
       </c>
       <c r="D94" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E94" t="n">
         <v>1884.0</v>
@@ -13441,7 +12552,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B95" t="n">
         <v>1880.0</v>
@@ -13450,7 +12561,7 @@
         <v>1899.0</v>
       </c>
       <c r="D95" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E95" t="n">
         <v>1885.0</v>
@@ -13461,7 +12572,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B96" t="n">
         <v>1880.0</v>
@@ -13470,7 +12581,7 @@
         <v>1899.0</v>
       </c>
       <c r="D96" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E96" t="n">
         <v>1886.0</v>
@@ -13481,7 +12592,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B97" t="n">
         <v>1880.0</v>
@@ -13490,7 +12601,7 @@
         <v>1899.0</v>
       </c>
       <c r="D97" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E97" t="n">
         <v>1887.0</v>
@@ -13501,7 +12612,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B98" t="n">
         <v>1880.0</v>
@@ -13510,7 +12621,7 @@
         <v>1899.0</v>
       </c>
       <c r="D98" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E98" t="n">
         <v>1888.0</v>
@@ -13521,7 +12632,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B99" t="n">
         <v>1880.0</v>
@@ -13530,7 +12641,7 @@
         <v>1899.0</v>
       </c>
       <c r="D99" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E99" t="n">
         <v>1888.0</v>
@@ -13541,7 +12652,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B100" t="n">
         <v>1880.0</v>
@@ -13550,7 +12661,7 @@
         <v>1899.0</v>
       </c>
       <c r="D100" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E100" t="n">
         <v>1889.0</v>
@@ -13561,7 +12672,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B101" t="n">
         <v>1880.0</v>
@@ -13570,7 +12681,7 @@
         <v>1899.0</v>
       </c>
       <c r="D101" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E101" t="n">
         <v>1890.0</v>
@@ -13581,7 +12692,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B102" t="n">
         <v>1880.0</v>
@@ -13590,7 +12701,7 @@
         <v>1899.0</v>
       </c>
       <c r="D102" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E102" t="n">
         <v>1890.0</v>
@@ -13601,7 +12712,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B103" t="n">
         <v>1880.0</v>
@@ -13610,7 +12721,7 @@
         <v>1899.0</v>
       </c>
       <c r="D103" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E103" t="n">
         <v>1891.0</v>
@@ -13621,7 +12732,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B104" t="n">
         <v>1880.0</v>
@@ -13630,7 +12741,7 @@
         <v>1899.0</v>
       </c>
       <c r="D104" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E104" t="n">
         <v>1892.0</v>
@@ -13641,7 +12752,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B105" t="n">
         <v>1880.0</v>
@@ -13650,7 +12761,7 @@
         <v>1899.0</v>
       </c>
       <c r="D105" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E105" t="n">
         <v>1893.0</v>
@@ -13661,7 +12772,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B106" t="n">
         <v>1880.0</v>
@@ -13670,7 +12781,7 @@
         <v>1899.0</v>
       </c>
       <c r="D106" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E106" t="n">
         <v>1893.0</v>
@@ -13681,7 +12792,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B107" t="n">
         <v>1880.0</v>
@@ -13690,7 +12801,7 @@
         <v>1899.0</v>
       </c>
       <c r="D107" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E107" t="n">
         <v>1894.0</v>
@@ -13701,7 +12812,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B108" t="n">
         <v>1880.0</v>
@@ -13710,7 +12821,7 @@
         <v>1899.0</v>
       </c>
       <c r="D108" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E108" t="n">
         <v>1894.0</v>
@@ -13721,7 +12832,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B109" t="n">
         <v>1880.0</v>
@@ -13730,7 +12841,7 @@
         <v>1899.0</v>
       </c>
       <c r="D109" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E109" t="n">
         <v>1895.0</v>
@@ -13741,7 +12852,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B110" t="n">
         <v>1880.0</v>
@@ -13750,7 +12861,7 @@
         <v>1899.0</v>
       </c>
       <c r="D110" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E110" t="n">
         <v>1895.0</v>
@@ -13761,7 +12872,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B111" t="n">
         <v>1880.0</v>
@@ -13770,7 +12881,7 @@
         <v>1899.0</v>
       </c>
       <c r="D111" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E111" t="n">
         <v>1896.0</v>
@@ -13781,7 +12892,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B112" t="n">
         <v>1880.0</v>
@@ -13790,7 +12901,7 @@
         <v>1899.0</v>
       </c>
       <c r="D112" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E112" t="n">
         <v>1896.0</v>
@@ -13801,7 +12912,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B113" t="n">
         <v>1880.0</v>
@@ -13810,7 +12921,7 @@
         <v>1899.0</v>
       </c>
       <c r="D113" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E113" t="n">
         <v>1897.0</v>
@@ -13821,7 +12932,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B114" t="n">
         <v>1880.0</v>
@@ -13830,7 +12941,7 @@
         <v>1899.0</v>
       </c>
       <c r="D114" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E114" t="n">
         <v>1898.0</v>
@@ -13841,7 +12952,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B115" t="n">
         <v>1880.0</v>
@@ -13850,7 +12961,7 @@
         <v>1899.0</v>
       </c>
       <c r="D115" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E115" t="n">
         <v>1899.0</v>
@@ -13861,7 +12972,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B116" t="n">
         <v>1880.0</v>
@@ -13870,7 +12981,7 @@
         <v>1899.0</v>
       </c>
       <c r="D116" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E116" t="n">
         <v>1899.0</v>
@@ -13881,7 +12992,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B117" t="n">
         <v>1900.0</v>
@@ -13890,7 +13001,7 @@
         <v>1919.0</v>
       </c>
       <c r="D117" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E117" t="n">
         <v>1900.0</v>
@@ -13901,7 +13012,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B118" t="n">
         <v>1900.0</v>
@@ -13910,7 +13021,7 @@
         <v>1919.0</v>
       </c>
       <c r="D118" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E118" t="n">
         <v>1900.0</v>
@@ -13921,7 +13032,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B119" t="n">
         <v>1900.0</v>
@@ -13930,7 +13041,7 @@
         <v>1919.0</v>
       </c>
       <c r="D119" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E119" t="n">
         <v>1901.0</v>
@@ -13941,7 +13052,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B120" t="n">
         <v>1900.0</v>
@@ -13950,7 +13061,7 @@
         <v>1919.0</v>
       </c>
       <c r="D120" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E120" t="n">
         <v>1901.0</v>
@@ -13961,7 +13072,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B121" t="n">
         <v>1900.0</v>
@@ -13970,7 +13081,7 @@
         <v>1919.0</v>
       </c>
       <c r="D121" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E121" t="n">
         <v>1902.0</v>
@@ -13981,7 +13092,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B122" t="n">
         <v>1900.0</v>
@@ -13990,7 +13101,7 @@
         <v>1919.0</v>
       </c>
       <c r="D122" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E122" t="n">
         <v>1903.0</v>
@@ -14001,7 +13112,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B123" t="n">
         <v>1900.0</v>
@@ -14010,7 +13121,7 @@
         <v>1919.0</v>
       </c>
       <c r="D123" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E123" t="n">
         <v>1903.0</v>
@@ -14021,7 +13132,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B124" t="n">
         <v>1900.0</v>
@@ -14030,7 +13141,7 @@
         <v>1919.0</v>
       </c>
       <c r="D124" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E124" t="n">
         <v>1904.0</v>
@@ -14041,7 +13152,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B125" t="n">
         <v>1900.0</v>
@@ -14050,7 +13161,7 @@
         <v>1919.0</v>
       </c>
       <c r="D125" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E125" t="n">
         <v>1904.0</v>
@@ -14061,7 +13172,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B126" t="n">
         <v>1900.0</v>
@@ -14070,7 +13181,7 @@
         <v>1919.0</v>
       </c>
       <c r="D126" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E126" t="n">
         <v>1905.0</v>
@@ -14081,7 +13192,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B127" t="n">
         <v>1900.0</v>
@@ -14090,7 +13201,7 @@
         <v>1919.0</v>
       </c>
       <c r="D127" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E127" t="n">
         <v>1905.0</v>
@@ -14101,7 +13212,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B128" t="n">
         <v>1900.0</v>
@@ -14110,7 +13221,7 @@
         <v>1919.0</v>
       </c>
       <c r="D128" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E128" t="n">
         <v>1907.0</v>
@@ -14121,7 +13232,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B129" t="n">
         <v>1900.0</v>
@@ -14130,7 +13241,7 @@
         <v>1919.0</v>
       </c>
       <c r="D129" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E129" t="n">
         <v>1907.0</v>
@@ -14141,7 +13252,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B130" t="n">
         <v>1900.0</v>
@@ -14150,7 +13261,7 @@
         <v>1919.0</v>
       </c>
       <c r="D130" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E130" t="n">
         <v>1908.0</v>
@@ -14161,7 +13272,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B131" t="n">
         <v>1900.0</v>
@@ -14170,7 +13281,7 @@
         <v>1919.0</v>
       </c>
       <c r="D131" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E131" t="n">
         <v>1908.0</v>
@@ -14181,7 +13292,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B132" t="n">
         <v>1900.0</v>
@@ -14190,7 +13301,7 @@
         <v>1919.0</v>
       </c>
       <c r="D132" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E132" t="n">
         <v>1909.0</v>
@@ -14201,7 +13312,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B133" t="n">
         <v>1900.0</v>
@@ -14210,7 +13321,7 @@
         <v>1919.0</v>
       </c>
       <c r="D133" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E133" t="n">
         <v>1909.0</v>
@@ -14221,7 +13332,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B134" t="n">
         <v>1900.0</v>
@@ -14230,7 +13341,7 @@
         <v>1919.0</v>
       </c>
       <c r="D134" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E134" t="n">
         <v>1910.0</v>
@@ -14241,7 +13352,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B135" t="n">
         <v>1900.0</v>
@@ -14250,7 +13361,7 @@
         <v>1919.0</v>
       </c>
       <c r="D135" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E135" t="n">
         <v>1910.0</v>
@@ -14261,7 +13372,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B136" t="n">
         <v>1900.0</v>
@@ -14270,7 +13381,7 @@
         <v>1919.0</v>
       </c>
       <c r="D136" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E136" t="n">
         <v>1911.0</v>
@@ -14281,7 +13392,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B137" t="n">
         <v>1900.0</v>
@@ -14290,7 +13401,7 @@
         <v>1919.0</v>
       </c>
       <c r="D137" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E137" t="n">
         <v>1912.0</v>
@@ -14301,7 +13412,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B138" t="n">
         <v>1900.0</v>
@@ -14310,7 +13421,7 @@
         <v>1919.0</v>
       </c>
       <c r="D138" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E138" t="n">
         <v>1912.0</v>
@@ -14321,7 +13432,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B139" t="n">
         <v>1900.0</v>
@@ -14330,7 +13441,7 @@
         <v>1919.0</v>
       </c>
       <c r="D139" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E139" t="n">
         <v>1913.0</v>
@@ -14341,7 +13452,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B140" t="n">
         <v>1900.0</v>
@@ -14350,7 +13461,7 @@
         <v>1919.0</v>
       </c>
       <c r="D140" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="E140" t="n">
         <v>1913.0</v>
@@ -14361,7 +13472,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B141" t="n">
         <v>1900.0</v>
@@ -14370,7 +13481,7 @@
         <v>1919.0</v>
       </c>
       <c r="D141" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E141" t="n">
         <v>1914.0</v>
@@ -14381,7 +13492,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B142" t="n">
         <v>1920.0</v>
@@ -14390,7 +13501,7 @@
         <v>1945.0</v>
       </c>
       <c r="D142" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E142" t="n">
         <v>1921.0</v>
@@ -14401,7 +13512,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B143" t="n">
         <v>1920.0</v>
@@ -14410,7 +13521,7 @@
         <v>1945.0</v>
       </c>
       <c r="D143" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E143" t="n">
         <v>1922.0</v>
@@ -14421,7 +13532,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B144" t="n">
         <v>1920.0</v>
@@ -14430,7 +13541,7 @@
         <v>1945.0</v>
       </c>
       <c r="D144" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E144" t="n">
         <v>1923.0</v>
@@ -14441,7 +13552,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B145" t="n">
         <v>1920.0</v>
@@ -14450,7 +13561,7 @@
         <v>1945.0</v>
       </c>
       <c r="D145" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E145" t="n">
         <v>1924.0</v>
@@ -14461,7 +13572,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B146" t="n">
         <v>1920.0</v>
@@ -14470,7 +13581,7 @@
         <v>1945.0</v>
       </c>
       <c r="D146" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E146" t="n">
         <v>1925.0</v>
@@ -14481,7 +13592,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B147" t="n">
         <v>1920.0</v>
@@ -14490,7 +13601,7 @@
         <v>1945.0</v>
       </c>
       <c r="D147" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E147" t="n">
         <v>1926.0</v>
@@ -14501,7 +13612,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B148" t="n">
         <v>1920.0</v>
@@ -14510,7 +13621,7 @@
         <v>1945.0</v>
       </c>
       <c r="D148" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E148" t="n">
         <v>1927.0</v>
@@ -14521,7 +13632,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B149" t="n">
         <v>1920.0</v>
@@ -14530,7 +13641,7 @@
         <v>1945.0</v>
       </c>
       <c r="D149" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E149" t="n">
         <v>1928.0</v>
@@ -14541,7 +13652,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B150" t="n">
         <v>1920.0</v>
@@ -14550,7 +13661,7 @@
         <v>1945.0</v>
       </c>
       <c r="D150" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E150" t="n">
         <v>1929.0</v>
@@ -14561,7 +13672,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B151" t="n">
         <v>1920.0</v>
@@ -14570,7 +13681,7 @@
         <v>1945.0</v>
       </c>
       <c r="D151" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E151" t="n">
         <v>1930.0</v>
@@ -14581,7 +13692,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B152" t="n">
         <v>1920.0</v>
@@ -14590,7 +13701,7 @@
         <v>1945.0</v>
       </c>
       <c r="D152" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E152" t="n">
         <v>1931.0</v>
@@ -14601,7 +13712,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B153" t="n">
         <v>1920.0</v>
@@ -14610,7 +13721,7 @@
         <v>1945.0</v>
       </c>
       <c r="D153" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E153" t="n">
         <v>1932.0</v>
@@ -14621,7 +13732,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B154" t="n">
         <v>1920.0</v>
@@ -14630,7 +13741,7 @@
         <v>1945.0</v>
       </c>
       <c r="D154" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E154" t="n">
         <v>1933.0</v>
@@ -14641,7 +13752,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B155" t="n">
         <v>1920.0</v>
@@ -14650,7 +13761,7 @@
         <v>1945.0</v>
       </c>
       <c r="D155" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E155" t="n">
         <v>1934.0</v>
@@ -14661,7 +13772,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B156" t="n">
         <v>1920.0</v>
@@ -14670,7 +13781,7 @@
         <v>1945.0</v>
       </c>
       <c r="D156" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E156" t="n">
         <v>1935.0</v>
@@ -14681,7 +13792,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B157" t="n">
         <v>1920.0</v>
@@ -14690,7 +13801,7 @@
         <v>1945.0</v>
       </c>
       <c r="D157" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E157" t="n">
         <v>1936.0</v>
@@ -14701,7 +13812,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B158" t="n">
         <v>1920.0</v>
@@ -14710,7 +13821,7 @@
         <v>1945.0</v>
       </c>
       <c r="D158" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E158" t="n">
         <v>1937.0</v>
@@ -14721,7 +13832,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B159" t="n">
         <v>1920.0</v>
@@ -14730,7 +13841,7 @@
         <v>1945.0</v>
       </c>
       <c r="D159" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E159" t="n">
         <v>1938.0</v>
@@ -14741,7 +13852,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B160" t="n">
         <v>1920.0</v>
@@ -14750,7 +13861,7 @@
         <v>1945.0</v>
       </c>
       <c r="D160" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E160" t="n">
         <v>1939.0</v>
@@ -14761,7 +13872,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B161" t="n">
         <v>1920.0</v>
@@ -14770,7 +13881,7 @@
         <v>1945.0</v>
       </c>
       <c r="D161" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E161" t="n">
         <v>1940.0</v>
@@ -14781,7 +13892,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="B162" t="n">
         <v>1920.0</v>
@@ -14790,7 +13901,7 @@
         <v>1945.0</v>
       </c>
       <c r="D162" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="E162" t="n">
         <v>1941.0</v>
@@ -14814,112 +13925,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>656</v>
+        <v>541</v>
       </c>
       <c r="B1" t="s">
-        <v>657</v>
+        <v>542</v>
       </c>
       <c r="C1" t="s">
-        <v>658</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>659</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
-        <v>664</v>
+        <v>549</v>
       </c>
       <c r="C2" t="s">
-        <v>665</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>660</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
-        <v>666</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>660</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="C4" t="s">
-        <v>667</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>661</v>
+        <v>546</v>
       </c>
       <c r="B5" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="C5" t="s">
-        <v>668</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>662</v>
+        <v>547</v>
       </c>
       <c r="B6" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="C6" t="s">
-        <v>669</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>663</v>
+        <v>548</v>
       </c>
       <c r="B7" t="s">
-        <v>654</v>
+        <v>535</v>
       </c>
       <c r="C7" t="s">
-        <v>670</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>661</v>
+        <v>546</v>
       </c>
       <c r="B8" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
-        <v>671</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>662</v>
+        <v>547</v>
       </c>
       <c r="B9" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="C9" t="s">
-        <v>672</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>663</v>
+        <v>548</v>
       </c>
       <c r="B10" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="C10" t="s">
-        <v>673</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
